--- a/Analyse_Globale.xlsx
+++ b/Analyse_Globale.xlsx
@@ -681,10 +681,10 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>686500</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>151210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>492200</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>89405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -835,10 +835,10 @@
         <v>30000</v>
       </c>
       <c r="X5">
-        <v>139500</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>165500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -912,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>157000</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>174000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -989,10 +989,10 @@
         <v>0</v>
       </c>
       <c r="X7">
-        <v>590500</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>176325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="X8">
-        <v>164500</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>113700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1143,10 +1143,10 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <v>289500</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>347750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1220,10 +1220,10 @@
         <v>45000</v>
       </c>
       <c r="X10">
-        <v>564600</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>119000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="X11">
-        <v>443000</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>2007660</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1374,10 +1374,10 @@
         <v>0</v>
       </c>
       <c r="X12">
-        <v>300500</v>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <v>584400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1451,10 +1451,10 @@
         <v>97000</v>
       </c>
       <c r="X13">
-        <v>136000</v>
+        <v>0</v>
       </c>
       <c r="Y13">
-        <v>130500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1528,10 +1528,10 @@
         <v>7000</v>
       </c>
       <c r="X14">
-        <v>211500</v>
+        <v>0</v>
       </c>
       <c r="Y14">
-        <v>78650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1605,10 +1605,10 @@
         <v>0</v>
       </c>
       <c r="X15">
-        <v>267500</v>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <v>218750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1682,10 +1682,10 @@
         <v>0</v>
       </c>
       <c r="X16">
-        <v>399800</v>
+        <v>0</v>
       </c>
       <c r="Y16">
-        <v>230300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -1759,10 +1759,10 @@
         <v>0</v>
       </c>
       <c r="X17">
-        <v>381600</v>
+        <v>0</v>
       </c>
       <c r="Y17">
-        <v>91500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -1836,10 +1836,10 @@
         <v>0</v>
       </c>
       <c r="X18">
-        <v>249500</v>
+        <v>0</v>
       </c>
       <c r="Y18">
-        <v>164500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -1913,10 +1913,10 @@
         <v>57000</v>
       </c>
       <c r="X19">
-        <v>95000</v>
+        <v>0</v>
       </c>
       <c r="Y19">
-        <v>187150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -1990,10 +1990,10 @@
         <v>15000</v>
       </c>
       <c r="X20">
-        <v>156000</v>
+        <v>0</v>
       </c>
       <c r="Y20">
-        <v>335327.39623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2067,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X21">
-        <v>440500</v>
+        <v>0</v>
       </c>
       <c r="Y21">
-        <v>133200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2144,10 +2144,10 @@
         <v>140000</v>
       </c>
       <c r="X22">
-        <v>150400</v>
+        <v>0</v>
       </c>
       <c r="Y22">
-        <v>296300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2221,10 +2221,10 @@
         <v>0</v>
       </c>
       <c r="X23">
-        <v>752500</v>
+        <v>0</v>
       </c>
       <c r="Y23">
-        <v>100150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2298,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="X24">
-        <v>771000</v>
+        <v>0</v>
       </c>
       <c r="Y24">
-        <v>154750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -2375,10 +2375,10 @@
         <v>13000</v>
       </c>
       <c r="X25">
-        <v>845500</v>
+        <v>0</v>
       </c>
       <c r="Y25">
-        <v>166750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -2452,10 +2452,10 @@
         <v>50000</v>
       </c>
       <c r="X26">
-        <v>638500</v>
+        <v>0</v>
       </c>
       <c r="Y26">
-        <v>1359175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -2529,10 +2529,10 @@
         <v>50000</v>
       </c>
       <c r="X27">
-        <v>273000</v>
+        <v>0</v>
       </c>
       <c r="Y27">
-        <v>313250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -2606,10 +2606,10 @@
         <v>0</v>
       </c>
       <c r="X28">
-        <v>931000</v>
+        <v>0</v>
       </c>
       <c r="Y28">
-        <v>406525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -2683,10 +2683,10 @@
         <v>0</v>
       </c>
       <c r="X29">
-        <v>419000</v>
+        <v>0</v>
       </c>
       <c r="Y29">
-        <v>187950</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -2760,10 +2760,10 @@
         <v>70000</v>
       </c>
       <c r="X30">
-        <v>375000</v>
+        <v>0</v>
       </c>
       <c r="Y30">
-        <v>360050</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -2837,10 +2837,10 @@
         <v>19000</v>
       </c>
       <c r="X31">
-        <v>745250</v>
+        <v>0</v>
       </c>
       <c r="Y31">
-        <v>125900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -2914,10 +2914,10 @@
         <v>0</v>
       </c>
       <c r="X32">
-        <v>276500</v>
+        <v>0</v>
       </c>
       <c r="Y32">
-        <v>403772.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -2991,10 +2991,10 @@
         <v>0</v>
       </c>
       <c r="X33">
-        <v>214150</v>
+        <v>0</v>
       </c>
       <c r="Y33">
-        <v>805850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:25">
@@ -3068,10 +3068,10 @@
         <v>0</v>
       </c>
       <c r="X34">
-        <v>446500</v>
+        <v>0</v>
       </c>
       <c r="Y34">
-        <v>63000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:25">
@@ -3145,10 +3145,10 @@
         <v>54000</v>
       </c>
       <c r="X35">
-        <v>186600</v>
+        <v>0</v>
       </c>
       <c r="Y35">
-        <v>323850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:25">
@@ -3222,10 +3222,10 @@
         <v>0</v>
       </c>
       <c r="X36">
-        <v>245500</v>
+        <v>0</v>
       </c>
       <c r="Y36">
-        <v>127600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:25">
@@ -3299,10 +3299,10 @@
         <v>0</v>
       </c>
       <c r="X37">
-        <v>302000</v>
+        <v>0</v>
       </c>
       <c r="Y37">
-        <v>122650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:25">
@@ -3376,10 +3376,10 @@
         <v>45500</v>
       </c>
       <c r="X38">
-        <v>481500</v>
+        <v>0</v>
       </c>
       <c r="Y38">
-        <v>176750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:25">
@@ -3453,10 +3453,10 @@
         <v>178500</v>
       </c>
       <c r="X39">
-        <v>615250</v>
+        <v>0</v>
       </c>
       <c r="Y39">
-        <v>663600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:25">
@@ -3530,10 +3530,10 @@
         <v>5000</v>
       </c>
       <c r="X40">
-        <v>214500</v>
+        <v>0</v>
       </c>
       <c r="Y40">
-        <v>135800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:25">
@@ -3607,10 +3607,10 @@
         <v>0</v>
       </c>
       <c r="X41">
-        <v>209250</v>
+        <v>0</v>
       </c>
       <c r="Y41">
-        <v>111450</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:25">
@@ -3684,10 +3684,10 @@
         <v>80000</v>
       </c>
       <c r="X42">
-        <v>494250</v>
+        <v>0</v>
       </c>
       <c r="Y42">
-        <v>2530650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:25">
@@ -3761,10 +3761,10 @@
         <v>0</v>
       </c>
       <c r="X43">
-        <v>353000</v>
+        <v>0</v>
       </c>
       <c r="Y43">
-        <v>289000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:25">
@@ -3838,10 +3838,10 @@
         <v>0</v>
       </c>
       <c r="X44">
-        <v>504250</v>
+        <v>0</v>
       </c>
       <c r="Y44">
-        <v>43300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:25">
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="X45">
-        <v>549500</v>
+        <v>0</v>
       </c>
       <c r="Y45">
-        <v>274550</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:25">
@@ -3992,10 +3992,10 @@
         <v>0</v>
       </c>
       <c r="X46">
-        <v>214500</v>
+        <v>0</v>
       </c>
       <c r="Y46">
-        <v>344650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:25">
@@ -4069,10 +4069,10 @@
         <v>0</v>
       </c>
       <c r="X47">
-        <v>162500</v>
+        <v>0</v>
       </c>
       <c r="Y47">
-        <v>132725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:25">
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="X48">
-        <v>311750</v>
+        <v>0</v>
       </c>
       <c r="Y48">
-        <v>212350</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:25">
@@ -4223,10 +4223,10 @@
         <v>0</v>
       </c>
       <c r="X49">
-        <v>520000</v>
+        <v>0</v>
       </c>
       <c r="Y49">
-        <v>260850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:25">
@@ -4300,10 +4300,10 @@
         <v>10000</v>
       </c>
       <c r="X50">
-        <v>437250</v>
+        <v>0</v>
       </c>
       <c r="Y50">
-        <v>123250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:25">
@@ -4377,10 +4377,10 @@
         <v>2000</v>
       </c>
       <c r="X51">
-        <v>1019500</v>
+        <v>0</v>
       </c>
       <c r="Y51">
-        <v>159075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:25">
@@ -4454,10 +4454,10 @@
         <v>5000</v>
       </c>
       <c r="X52">
-        <v>1153500</v>
+        <v>0</v>
       </c>
       <c r="Y52">
-        <v>168050</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:25">
@@ -4531,10 +4531,10 @@
         <v>210000</v>
       </c>
       <c r="X53">
-        <v>942250</v>
+        <v>0</v>
       </c>
       <c r="Y53">
-        <v>1425850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:25">
@@ -4608,10 +4608,10 @@
         <v>21000</v>
       </c>
       <c r="X54">
-        <v>376500</v>
+        <v>0</v>
       </c>
       <c r="Y54">
-        <v>191225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:25">
@@ -4685,10 +4685,10 @@
         <v>0</v>
       </c>
       <c r="X55">
-        <v>417000</v>
+        <v>0</v>
       </c>
       <c r="Y55">
-        <v>127000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:25">
@@ -4762,10 +4762,10 @@
         <v>0</v>
       </c>
       <c r="X56">
-        <v>997250</v>
+        <v>0</v>
       </c>
       <c r="Y56">
-        <v>410925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:25">
@@ -4839,10 +4839,10 @@
         <v>20000</v>
       </c>
       <c r="X57">
-        <v>343000</v>
+        <v>0</v>
       </c>
       <c r="Y57">
-        <v>275925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:25">
@@ -4916,10 +4916,10 @@
         <v>0</v>
       </c>
       <c r="X58">
-        <v>1074250</v>
+        <v>0</v>
       </c>
       <c r="Y58">
-        <v>180100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:25">
@@ -4993,10 +4993,10 @@
         <v>26000</v>
       </c>
       <c r="X59">
-        <v>1124750</v>
+        <v>0</v>
       </c>
       <c r="Y59">
-        <v>628400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:25">
@@ -5070,10 +5070,10 @@
         <v>177500</v>
       </c>
       <c r="X60">
-        <v>392500</v>
+        <v>0</v>
       </c>
       <c r="Y60">
-        <v>1958050</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:25">
@@ -5147,10 +5147,10 @@
         <v>0</v>
       </c>
       <c r="X61">
-        <v>145500</v>
+        <v>0</v>
       </c>
       <c r="Y61">
-        <v>201125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:25">
@@ -5224,10 +5224,10 @@
         <v>0</v>
       </c>
       <c r="X62">
-        <v>852000</v>
+        <v>0</v>
       </c>
       <c r="Y62">
-        <v>97300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:25">
@@ -5301,10 +5301,10 @@
         <v>0</v>
       </c>
       <c r="X63">
-        <v>1422250</v>
+        <v>0</v>
       </c>
       <c r="Y63">
-        <v>185750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:25">
@@ -5378,10 +5378,10 @@
         <v>0</v>
       </c>
       <c r="X64">
-        <v>493000</v>
+        <v>0</v>
       </c>
       <c r="Y64">
-        <v>247700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:25">
@@ -5455,10 +5455,10 @@
         <v>170000</v>
       </c>
       <c r="X65">
-        <v>654250</v>
+        <v>0</v>
       </c>
       <c r="Y65">
-        <v>257950</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:25">
@@ -5532,10 +5532,10 @@
         <v>0</v>
       </c>
       <c r="X66">
-        <v>977750</v>
+        <v>0</v>
       </c>
       <c r="Y66">
-        <v>164500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:25">
@@ -5609,10 +5609,10 @@
         <v>0</v>
       </c>
       <c r="X67">
-        <v>792750</v>
+        <v>0</v>
       </c>
       <c r="Y67">
-        <v>1569500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:25">
@@ -5686,10 +5686,10 @@
         <v>65000</v>
       </c>
       <c r="X68">
-        <v>335500</v>
+        <v>0</v>
       </c>
       <c r="Y68">
-        <v>261325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:25">
@@ -5763,10 +5763,10 @@
         <v>0</v>
       </c>
       <c r="X69">
-        <v>653500</v>
+        <v>0</v>
       </c>
       <c r="Y69">
-        <v>191425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:25">
@@ -5840,10 +5840,10 @@
         <v>0</v>
       </c>
       <c r="X70">
-        <v>1170500</v>
+        <v>0</v>
       </c>
       <c r="Y70">
-        <v>330450</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:25">
@@ -5917,10 +5917,10 @@
         <v>80000</v>
       </c>
       <c r="X71">
-        <v>602250</v>
+        <v>0</v>
       </c>
       <c r="Y71">
-        <v>304300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:25">
@@ -5994,10 +5994,10 @@
         <v>5000</v>
       </c>
       <c r="X72">
-        <v>1478500</v>
+        <v>0</v>
       </c>
       <c r="Y72">
-        <v>1165250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:25">
@@ -6071,10 +6071,10 @@
         <v>35000</v>
       </c>
       <c r="X73">
-        <v>705500</v>
+        <v>0</v>
       </c>
       <c r="Y73">
-        <v>311750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:25">
@@ -6148,10 +6148,10 @@
         <v>0</v>
       </c>
       <c r="X74">
-        <v>463500</v>
+        <v>0</v>
       </c>
       <c r="Y74">
-        <v>1641600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:25">
@@ -6225,10 +6225,10 @@
         <v>80000</v>
       </c>
       <c r="X75">
-        <v>465000</v>
+        <v>0</v>
       </c>
       <c r="Y75">
-        <v>255250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:25">
@@ -6302,10 +6302,10 @@
         <v>35000</v>
       </c>
       <c r="X76">
-        <v>355750</v>
+        <v>0</v>
       </c>
       <c r="Y76">
-        <v>114550</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:25">
@@ -6379,10 +6379,10 @@
         <v>0</v>
       </c>
       <c r="X77">
-        <v>1286500</v>
+        <v>0</v>
       </c>
       <c r="Y77">
-        <v>509900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:25">
@@ -6456,10 +6456,10 @@
         <v>0</v>
       </c>
       <c r="X78">
-        <v>566000</v>
+        <v>0</v>
       </c>
       <c r="Y78">
-        <v>231200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:25">
@@ -6533,10 +6533,10 @@
         <v>15000</v>
       </c>
       <c r="X79">
-        <v>1675250</v>
+        <v>0</v>
       </c>
       <c r="Y79">
-        <v>242025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:25">
@@ -6610,10 +6610,10 @@
         <v>0</v>
       </c>
       <c r="X80">
-        <v>1010250</v>
+        <v>0</v>
       </c>
       <c r="Y80">
-        <v>937650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:25">
@@ -6687,10 +6687,10 @@
         <v>0</v>
       </c>
       <c r="X81">
-        <v>1693000</v>
+        <v>0</v>
       </c>
       <c r="Y81">
-        <v>1763350</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:25">
@@ -6764,10 +6764,10 @@
         <v>50000</v>
       </c>
       <c r="X82">
-        <v>394250</v>
+        <v>0</v>
       </c>
       <c r="Y82">
-        <v>330150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:25">
@@ -6841,10 +6841,10 @@
         <v>0</v>
       </c>
       <c r="X83">
-        <v>388250</v>
+        <v>0</v>
       </c>
       <c r="Y83">
-        <v>78450</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:25">
@@ -6918,10 +6918,10 @@
         <v>0</v>
       </c>
       <c r="X84">
-        <v>1230500</v>
+        <v>0</v>
       </c>
       <c r="Y84">
-        <v>389925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:25">
@@ -6995,10 +6995,10 @@
         <v>0</v>
       </c>
       <c r="X85">
-        <v>1125500</v>
+        <v>0</v>
       </c>
       <c r="Y85">
-        <v>454775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:25">
@@ -7072,10 +7072,10 @@
         <v>36500</v>
       </c>
       <c r="X86">
-        <v>1189750</v>
+        <v>0</v>
       </c>
       <c r="Y86">
-        <v>435550</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:25">
@@ -7149,10 +7149,10 @@
         <v>0</v>
       </c>
       <c r="X87">
-        <v>950750</v>
+        <v>0</v>
       </c>
       <c r="Y87">
-        <v>382000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:25">
@@ -7226,10 +7226,10 @@
         <v>0</v>
       </c>
       <c r="X88">
-        <v>872500</v>
+        <v>0</v>
       </c>
       <c r="Y88">
-        <v>1038250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:25">
@@ -7303,10 +7303,10 @@
         <v>0</v>
       </c>
       <c r="X89">
-        <v>361500</v>
+        <v>0</v>
       </c>
       <c r="Y89">
-        <v>390100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:25">
@@ -7380,10 +7380,10 @@
         <v>27000</v>
       </c>
       <c r="X90">
-        <v>539000</v>
+        <v>0</v>
       </c>
       <c r="Y90">
-        <v>163850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:25">
@@ -7457,10 +7457,10 @@
         <v>0</v>
       </c>
       <c r="X91">
-        <v>909000</v>
+        <v>0</v>
       </c>
       <c r="Y91">
-        <v>971150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:25">
@@ -7534,10 +7534,10 @@
         <v>0</v>
       </c>
       <c r="X92">
-        <v>947750</v>
+        <v>0</v>
       </c>
       <c r="Y92">
-        <v>241300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:25">
@@ -7611,10 +7611,10 @@
         <v>0</v>
       </c>
       <c r="X93">
-        <v>1934000</v>
+        <v>0</v>
       </c>
       <c r="Y93">
-        <v>383300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:25">
@@ -7688,10 +7688,10 @@
         <v>0</v>
       </c>
       <c r="X94">
-        <v>1042750</v>
+        <v>0</v>
       </c>
       <c r="Y94">
-        <v>348750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:25">
@@ -7765,10 +7765,10 @@
         <v>0</v>
       </c>
       <c r="X95">
-        <v>1412000</v>
+        <v>0</v>
       </c>
       <c r="Y95">
-        <v>1801025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:25">
@@ -7842,10 +7842,10 @@
         <v>0</v>
       </c>
       <c r="X96">
-        <v>343500</v>
+        <v>0</v>
       </c>
       <c r="Y96">
-        <v>205650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:25">
@@ -7919,10 +7919,10 @@
         <v>0</v>
       </c>
       <c r="X97">
-        <v>418750</v>
+        <v>0</v>
       </c>
       <c r="Y97">
-        <v>401000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:25">
@@ -7996,10 +7996,10 @@
         <v>0</v>
       </c>
       <c r="X98">
-        <v>395000</v>
+        <v>0</v>
       </c>
       <c r="Y98">
-        <v>295700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:25">
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="X99">
-        <v>1350500</v>
+        <v>0</v>
       </c>
       <c r="Y99">
-        <v>106100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:25">
@@ -8150,10 +8150,10 @@
         <v>50000</v>
       </c>
       <c r="X100">
-        <v>1633250</v>
+        <v>0</v>
       </c>
       <c r="Y100">
-        <v>1259800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:25">
@@ -8227,10 +8227,10 @@
         <v>0</v>
       </c>
       <c r="X101">
-        <v>1259750</v>
+        <v>0</v>
       </c>
       <c r="Y101">
-        <v>205250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:25">
@@ -8304,10 +8304,10 @@
         <v>0</v>
       </c>
       <c r="X102">
-        <v>1497000</v>
+        <v>0</v>
       </c>
       <c r="Y102">
-        <v>2014850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:25">
@@ -8381,10 +8381,10 @@
         <v>0</v>
       </c>
       <c r="X103">
-        <v>405750</v>
+        <v>0</v>
       </c>
       <c r="Y103">
-        <v>811050</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Analyse_Globale.xlsx
+++ b/Analyse_Globale.xlsx
@@ -450,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y103"/>
+  <dimension ref="A1:Y134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8387,6 +8387,2393 @@
         <v>811050</v>
       </c>
     </row>
+    <row r="104" spans="1:25">
+      <c r="A104" s="2">
+        <v>45139</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>6500</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>5000</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>10500</v>
+      </c>
+      <c r="J104">
+        <v>1000</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="P104">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
+      </c>
+      <c r="R104">
+        <v>1000</v>
+      </c>
+      <c r="S104">
+        <v>18000</v>
+      </c>
+      <c r="T104">
+        <v>0</v>
+      </c>
+      <c r="U104">
+        <v>0</v>
+      </c>
+      <c r="V104">
+        <v>1000</v>
+      </c>
+      <c r="W104">
+        <v>0</v>
+      </c>
+      <c r="X104">
+        <v>516000</v>
+      </c>
+      <c r="Y104">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25">
+      <c r="A105" s="2">
+        <v>45140</v>
+      </c>
+      <c r="B105">
+        <v>100000</v>
+      </c>
+      <c r="C105">
+        <v>5000</v>
+      </c>
+      <c r="D105">
+        <v>204500</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>272900</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>110000</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="R105">
+        <v>9500</v>
+      </c>
+      <c r="S105">
+        <v>1600</v>
+      </c>
+      <c r="T105">
+        <v>0</v>
+      </c>
+      <c r="U105">
+        <v>120000</v>
+      </c>
+      <c r="V105">
+        <v>0</v>
+      </c>
+      <c r="W105">
+        <v>0</v>
+      </c>
+      <c r="X105">
+        <v>2514750</v>
+      </c>
+      <c r="Y105">
+        <v>823500</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25">
+      <c r="A106" s="2">
+        <v>45141</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>92000</v>
+      </c>
+      <c r="D106">
+        <v>177050</v>
+      </c>
+      <c r="E106">
+        <v>39550</v>
+      </c>
+      <c r="F106">
+        <v>23500</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>5250</v>
+      </c>
+      <c r="J106">
+        <v>1000</v>
+      </c>
+      <c r="K106">
+        <v>50000</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>5000</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+      <c r="R106">
+        <v>4000</v>
+      </c>
+      <c r="S106">
+        <v>9000</v>
+      </c>
+      <c r="T106">
+        <v>1800</v>
+      </c>
+      <c r="U106">
+        <v>0</v>
+      </c>
+      <c r="V106">
+        <v>0</v>
+      </c>
+      <c r="W106">
+        <v>0</v>
+      </c>
+      <c r="X106">
+        <v>1210000</v>
+      </c>
+      <c r="Y106">
+        <v>408150</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25">
+      <c r="A107" s="2">
+        <v>45142</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>83975</v>
+      </c>
+      <c r="E107">
+        <v>63025</v>
+      </c>
+      <c r="F107">
+        <v>226400</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>3500</v>
+      </c>
+      <c r="J107">
+        <v>1000</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>75000</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
+      </c>
+      <c r="R107">
+        <v>24100</v>
+      </c>
+      <c r="S107">
+        <v>0</v>
+      </c>
+      <c r="T107">
+        <v>1000</v>
+      </c>
+      <c r="U107">
+        <v>0</v>
+      </c>
+      <c r="V107">
+        <v>0</v>
+      </c>
+      <c r="W107">
+        <v>0</v>
+      </c>
+      <c r="X107">
+        <v>1610750</v>
+      </c>
+      <c r="Y107">
+        <v>478000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25">
+      <c r="A108" s="2">
+        <v>45143</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>107350</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>297200</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>4500</v>
+      </c>
+      <c r="J108">
+        <v>1000</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>9000</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+      <c r="P108">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>0</v>
+      </c>
+      <c r="R108">
+        <v>3600</v>
+      </c>
+      <c r="S108">
+        <v>0</v>
+      </c>
+      <c r="T108">
+        <v>0</v>
+      </c>
+      <c r="U108">
+        <v>25000</v>
+      </c>
+      <c r="V108">
+        <v>5000</v>
+      </c>
+      <c r="W108">
+        <v>0</v>
+      </c>
+      <c r="X108">
+        <v>1205750</v>
+      </c>
+      <c r="Y108">
+        <v>452650</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25">
+      <c r="A109" s="2">
+        <v>45144</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>1000</v>
+      </c>
+      <c r="D109">
+        <v>73750</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>33400</v>
+      </c>
+      <c r="G109">
+        <v>1890450</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>3500</v>
+      </c>
+      <c r="J109">
+        <v>1000</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
+      </c>
+      <c r="R109">
+        <v>9000</v>
+      </c>
+      <c r="S109">
+        <v>200</v>
+      </c>
+      <c r="T109">
+        <v>0</v>
+      </c>
+      <c r="U109">
+        <v>0</v>
+      </c>
+      <c r="V109">
+        <v>0</v>
+      </c>
+      <c r="W109">
+        <v>0</v>
+      </c>
+      <c r="X109">
+        <v>1454750</v>
+      </c>
+      <c r="Y109">
+        <v>2012300</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25">
+      <c r="A110" s="2">
+        <v>45145</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>92000</v>
+      </c>
+      <c r="D110">
+        <v>191950</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>2000</v>
+      </c>
+      <c r="J110">
+        <v>1000</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+      <c r="P110">
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <v>3000</v>
+      </c>
+      <c r="R110">
+        <v>500</v>
+      </c>
+      <c r="S110">
+        <v>0</v>
+      </c>
+      <c r="T110">
+        <v>0</v>
+      </c>
+      <c r="U110">
+        <v>20000</v>
+      </c>
+      <c r="V110">
+        <v>125000</v>
+      </c>
+      <c r="W110">
+        <v>0</v>
+      </c>
+      <c r="X110">
+        <v>582750</v>
+      </c>
+      <c r="Y110">
+        <v>435450</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25">
+      <c r="A111" s="2">
+        <v>45146</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>1500</v>
+      </c>
+      <c r="D111">
+        <v>64000</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>34400</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>7000</v>
+      </c>
+      <c r="J111">
+        <v>1000</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="P111">
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <v>0</v>
+      </c>
+      <c r="R111">
+        <v>5000</v>
+      </c>
+      <c r="S111">
+        <v>0</v>
+      </c>
+      <c r="T111">
+        <v>0</v>
+      </c>
+      <c r="U111">
+        <v>0</v>
+      </c>
+      <c r="V111">
+        <v>1000</v>
+      </c>
+      <c r="W111">
+        <v>10000</v>
+      </c>
+      <c r="X111">
+        <v>602500</v>
+      </c>
+      <c r="Y111">
+        <v>123900</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25">
+      <c r="A112" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>168500</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>20500</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>7000</v>
+      </c>
+      <c r="J112">
+        <v>1000</v>
+      </c>
+      <c r="K112">
+        <v>80000</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112">
+        <v>28000</v>
+      </c>
+      <c r="S112">
+        <v>0</v>
+      </c>
+      <c r="T112">
+        <v>0</v>
+      </c>
+      <c r="U112">
+        <v>16000</v>
+      </c>
+      <c r="V112">
+        <v>397000</v>
+      </c>
+      <c r="W112">
+        <v>46500</v>
+      </c>
+      <c r="X112">
+        <v>2105750</v>
+      </c>
+      <c r="Y112">
+        <v>764500</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25">
+      <c r="A113" s="2">
+        <v>45148</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>92000</v>
+      </c>
+      <c r="D113">
+        <v>71450</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>272000</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>1000</v>
+      </c>
+      <c r="K113">
+        <v>40000</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>300000</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <v>25000</v>
+      </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+      <c r="R113">
+        <v>42000</v>
+      </c>
+      <c r="S113">
+        <v>0</v>
+      </c>
+      <c r="T113">
+        <v>0</v>
+      </c>
+      <c r="U113">
+        <v>130000</v>
+      </c>
+      <c r="V113">
+        <v>80000</v>
+      </c>
+      <c r="W113">
+        <v>15000</v>
+      </c>
+      <c r="X113">
+        <v>1129500</v>
+      </c>
+      <c r="Y113">
+        <v>1068450</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25">
+      <c r="A114" s="2">
+        <v>45149</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>69600</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>417500</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>10500</v>
+      </c>
+      <c r="J114">
+        <v>1000</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
+      </c>
+      <c r="R114">
+        <v>6500</v>
+      </c>
+      <c r="S114">
+        <v>0</v>
+      </c>
+      <c r="T114">
+        <v>1500</v>
+      </c>
+      <c r="U114">
+        <v>50000</v>
+      </c>
+      <c r="V114">
+        <v>0</v>
+      </c>
+      <c r="W114">
+        <v>0</v>
+      </c>
+      <c r="X114">
+        <v>1368250</v>
+      </c>
+      <c r="Y114">
+        <v>556600</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25">
+      <c r="A115" s="2">
+        <v>45150</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>122500</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>92600</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>3500</v>
+      </c>
+      <c r="J115">
+        <v>1000</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>0</v>
+      </c>
+      <c r="R115">
+        <v>14500</v>
+      </c>
+      <c r="S115">
+        <v>0</v>
+      </c>
+      <c r="T115">
+        <v>0</v>
+      </c>
+      <c r="U115">
+        <v>39000</v>
+      </c>
+      <c r="V115">
+        <v>135000</v>
+      </c>
+      <c r="W115">
+        <v>25000</v>
+      </c>
+      <c r="X115">
+        <v>2536500</v>
+      </c>
+      <c r="Y115">
+        <v>433100</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25">
+      <c r="A116" s="2">
+        <v>45151</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>92000</v>
+      </c>
+      <c r="D116">
+        <v>159375</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>529400</v>
+      </c>
+      <c r="G116">
+        <v>1726500</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>9000</v>
+      </c>
+      <c r="J116">
+        <v>1000</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="P116">
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>0</v>
+      </c>
+      <c r="R116">
+        <v>0</v>
+      </c>
+      <c r="S116">
+        <v>0</v>
+      </c>
+      <c r="T116">
+        <v>0</v>
+      </c>
+      <c r="U116">
+        <v>0</v>
+      </c>
+      <c r="V116">
+        <v>0</v>
+      </c>
+      <c r="W116">
+        <v>0</v>
+      </c>
+      <c r="X116">
+        <v>1090500</v>
+      </c>
+      <c r="Y116">
+        <v>2517275</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25">
+      <c r="A117" s="2">
+        <v>45152</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>140175</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>49100</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>1000</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>1000</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="P117">
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <v>0</v>
+      </c>
+      <c r="R117">
+        <v>4500</v>
+      </c>
+      <c r="S117">
+        <v>0</v>
+      </c>
+      <c r="T117">
+        <v>0</v>
+      </c>
+      <c r="U117">
+        <v>0</v>
+      </c>
+      <c r="V117">
+        <v>51000</v>
+      </c>
+      <c r="W117">
+        <v>0</v>
+      </c>
+      <c r="X117">
+        <v>1984500</v>
+      </c>
+      <c r="Y117">
+        <v>246775</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25">
+      <c r="A118" s="2">
+        <v>45153</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>16500</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>4800</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>10500</v>
+      </c>
+      <c r="J118">
+        <v>1000</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+      <c r="P118">
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <v>0</v>
+      </c>
+      <c r="R118">
+        <v>10000</v>
+      </c>
+      <c r="S118">
+        <v>0</v>
+      </c>
+      <c r="T118">
+        <v>0</v>
+      </c>
+      <c r="U118">
+        <v>0</v>
+      </c>
+      <c r="V118">
+        <v>0</v>
+      </c>
+      <c r="W118">
+        <v>0</v>
+      </c>
+      <c r="X118">
+        <v>457250</v>
+      </c>
+      <c r="Y118">
+        <v>42800</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25">
+      <c r="A119" s="2">
+        <v>45154</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>110250</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>961400</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>10500</v>
+      </c>
+      <c r="J119">
+        <v>1000</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <v>55000</v>
+      </c>
+      <c r="P119">
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <v>0</v>
+      </c>
+      <c r="R119">
+        <v>56000</v>
+      </c>
+      <c r="S119">
+        <v>10000</v>
+      </c>
+      <c r="T119">
+        <v>0</v>
+      </c>
+      <c r="U119">
+        <v>40000</v>
+      </c>
+      <c r="V119">
+        <v>90000</v>
+      </c>
+      <c r="W119">
+        <v>0</v>
+      </c>
+      <c r="X119">
+        <v>2845600</v>
+      </c>
+      <c r="Y119">
+        <v>1334150</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25">
+      <c r="A120" s="2">
+        <v>45155</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>92000</v>
+      </c>
+      <c r="D120">
+        <v>155600</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>33900</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>10500</v>
+      </c>
+      <c r="J120">
+        <v>1000</v>
+      </c>
+      <c r="K120">
+        <v>30000</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>2000</v>
+      </c>
+      <c r="R120">
+        <v>9000</v>
+      </c>
+      <c r="S120">
+        <v>0</v>
+      </c>
+      <c r="T120">
+        <v>1500</v>
+      </c>
+      <c r="U120">
+        <v>0</v>
+      </c>
+      <c r="V120">
+        <v>338800</v>
+      </c>
+      <c r="W120">
+        <v>30000</v>
+      </c>
+      <c r="X120">
+        <v>1144500</v>
+      </c>
+      <c r="Y120">
+        <v>704300</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25">
+      <c r="A121" s="2">
+        <v>45156</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>128700</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>10500</v>
+      </c>
+      <c r="J121">
+        <v>1000</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+      <c r="P121">
+        <v>0</v>
+      </c>
+      <c r="Q121">
+        <v>0</v>
+      </c>
+      <c r="R121">
+        <v>28500</v>
+      </c>
+      <c r="S121">
+        <v>1000</v>
+      </c>
+      <c r="T121">
+        <v>0</v>
+      </c>
+      <c r="U121">
+        <v>15000</v>
+      </c>
+      <c r="V121">
+        <v>0</v>
+      </c>
+      <c r="W121">
+        <v>0</v>
+      </c>
+      <c r="X121">
+        <v>1302500</v>
+      </c>
+      <c r="Y121">
+        <v>184700</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25">
+      <c r="A122" s="2">
+        <v>45157</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>100550</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>7000</v>
+      </c>
+      <c r="J122">
+        <v>1000</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+      <c r="P122">
+        <v>0</v>
+      </c>
+      <c r="Q122">
+        <v>0</v>
+      </c>
+      <c r="R122">
+        <v>3000</v>
+      </c>
+      <c r="S122">
+        <v>0</v>
+      </c>
+      <c r="T122">
+        <v>1500</v>
+      </c>
+      <c r="U122">
+        <v>0</v>
+      </c>
+      <c r="V122">
+        <v>0</v>
+      </c>
+      <c r="W122">
+        <v>5000</v>
+      </c>
+      <c r="X122">
+        <v>1354500</v>
+      </c>
+      <c r="Y122">
+        <v>118050</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25">
+      <c r="A123" s="2">
+        <v>45158</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>77500</v>
+      </c>
+      <c r="D123">
+        <v>102225</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>2060800</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>10500</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+      <c r="P123">
+        <v>0</v>
+      </c>
+      <c r="Q123">
+        <v>0</v>
+      </c>
+      <c r="R123">
+        <v>0</v>
+      </c>
+      <c r="S123">
+        <v>0</v>
+      </c>
+      <c r="T123">
+        <v>1500</v>
+      </c>
+      <c r="U123">
+        <v>0</v>
+      </c>
+      <c r="V123">
+        <v>0</v>
+      </c>
+      <c r="W123">
+        <v>0</v>
+      </c>
+      <c r="X123">
+        <v>34500</v>
+      </c>
+      <c r="Y123">
+        <v>2252525</v>
+      </c>
+    </row>
+    <row r="124" spans="1:25">
+      <c r="A124" s="2">
+        <v>45159</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>97750</v>
+      </c>
+      <c r="E124">
+        <v>37250</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>1000</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <v>0</v>
+      </c>
+      <c r="P124">
+        <v>0</v>
+      </c>
+      <c r="Q124">
+        <v>0</v>
+      </c>
+      <c r="R124">
+        <v>9000</v>
+      </c>
+      <c r="S124">
+        <v>0</v>
+      </c>
+      <c r="T124">
+        <v>0</v>
+      </c>
+      <c r="U124">
+        <v>0</v>
+      </c>
+      <c r="V124">
+        <v>765000</v>
+      </c>
+      <c r="W124">
+        <v>185000</v>
+      </c>
+      <c r="X124">
+        <v>663500</v>
+      </c>
+      <c r="Y124">
+        <v>1095000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25">
+      <c r="A125" s="2">
+        <v>45160</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>13000</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>240900</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>10500</v>
+      </c>
+      <c r="J125">
+        <v>1000</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125">
+        <v>0</v>
+      </c>
+      <c r="P125">
+        <v>0</v>
+      </c>
+      <c r="Q125">
+        <v>0</v>
+      </c>
+      <c r="R125">
+        <v>0</v>
+      </c>
+      <c r="S125">
+        <v>0</v>
+      </c>
+      <c r="T125">
+        <v>0</v>
+      </c>
+      <c r="U125">
+        <v>0</v>
+      </c>
+      <c r="V125">
+        <v>0</v>
+      </c>
+      <c r="W125">
+        <v>0</v>
+      </c>
+      <c r="X125">
+        <v>588500</v>
+      </c>
+      <c r="Y125">
+        <v>265400</v>
+      </c>
+    </row>
+    <row r="126" spans="1:25">
+      <c r="A126" s="2">
+        <v>45161</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>77500</v>
+      </c>
+      <c r="D126">
+        <v>132150</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>518700</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>10500</v>
+      </c>
+      <c r="J126">
+        <v>1000</v>
+      </c>
+      <c r="K126">
+        <v>160000</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <v>0</v>
+      </c>
+      <c r="P126">
+        <v>0</v>
+      </c>
+      <c r="Q126">
+        <v>3000</v>
+      </c>
+      <c r="R126">
+        <v>30500</v>
+      </c>
+      <c r="S126">
+        <v>0</v>
+      </c>
+      <c r="T126">
+        <v>2100</v>
+      </c>
+      <c r="U126">
+        <v>145650</v>
+      </c>
+      <c r="V126">
+        <v>0</v>
+      </c>
+      <c r="W126">
+        <v>0</v>
+      </c>
+      <c r="X126">
+        <v>2563250</v>
+      </c>
+      <c r="Y126">
+        <v>1081100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25">
+      <c r="A127" s="2">
+        <v>45162</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>119400</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>105600</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>1000</v>
+      </c>
+      <c r="K127">
+        <v>30000</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+      <c r="P127">
+        <v>0</v>
+      </c>
+      <c r="Q127">
+        <v>0</v>
+      </c>
+      <c r="R127">
+        <v>9000</v>
+      </c>
+      <c r="S127">
+        <v>0</v>
+      </c>
+      <c r="T127">
+        <v>0</v>
+      </c>
+      <c r="U127">
+        <v>0</v>
+      </c>
+      <c r="V127">
+        <v>51750</v>
+      </c>
+      <c r="W127">
+        <v>57500</v>
+      </c>
+      <c r="X127">
+        <v>1214000</v>
+      </c>
+      <c r="Y127">
+        <v>374250</v>
+      </c>
+    </row>
+    <row r="128" spans="1:25">
+      <c r="A128" s="2">
+        <v>45163</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>96900</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>86000</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>21000</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
+      <c r="P128">
+        <v>0</v>
+      </c>
+      <c r="Q128">
+        <v>0</v>
+      </c>
+      <c r="R128">
+        <v>0</v>
+      </c>
+      <c r="S128">
+        <v>0</v>
+      </c>
+      <c r="T128">
+        <v>0</v>
+      </c>
+      <c r="U128">
+        <v>0</v>
+      </c>
+      <c r="V128">
+        <v>0</v>
+      </c>
+      <c r="W128">
+        <v>15000</v>
+      </c>
+      <c r="X128">
+        <v>1177750</v>
+      </c>
+      <c r="Y128">
+        <v>218900</v>
+      </c>
+    </row>
+    <row r="129" spans="1:25">
+      <c r="A129" s="2">
+        <v>45164</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>77500</v>
+      </c>
+      <c r="D129">
+        <v>118225</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>545300</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>6500</v>
+      </c>
+      <c r="J129">
+        <v>1000</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
+      <c r="P129">
+        <v>0</v>
+      </c>
+      <c r="Q129">
+        <v>0</v>
+      </c>
+      <c r="R129">
+        <v>5500</v>
+      </c>
+      <c r="S129">
+        <v>0</v>
+      </c>
+      <c r="T129">
+        <v>0</v>
+      </c>
+      <c r="U129">
+        <v>0</v>
+      </c>
+      <c r="V129">
+        <v>0</v>
+      </c>
+      <c r="W129">
+        <v>26000</v>
+      </c>
+      <c r="X129">
+        <v>1987250</v>
+      </c>
+      <c r="Y129">
+        <v>780025</v>
+      </c>
+    </row>
+    <row r="130" spans="1:25">
+      <c r="A130" s="2">
+        <v>45165</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>95650</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>103000</v>
+      </c>
+      <c r="G130">
+        <v>1643150</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>10500</v>
+      </c>
+      <c r="J130">
+        <v>1000</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>30000</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
+      <c r="P130">
+        <v>0</v>
+      </c>
+      <c r="Q130">
+        <v>0</v>
+      </c>
+      <c r="R130">
+        <v>9000</v>
+      </c>
+      <c r="S130">
+        <v>0</v>
+      </c>
+      <c r="T130">
+        <v>0</v>
+      </c>
+      <c r="U130">
+        <v>0</v>
+      </c>
+      <c r="V130">
+        <v>0</v>
+      </c>
+      <c r="W130">
+        <v>0</v>
+      </c>
+      <c r="X130">
+        <v>1166750</v>
+      </c>
+      <c r="Y130">
+        <v>1892300</v>
+      </c>
+    </row>
+    <row r="131" spans="1:25">
+      <c r="A131" s="2">
+        <v>45166</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>77500</v>
+      </c>
+      <c r="D131">
+        <v>223500</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>2500</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>2000</v>
+      </c>
+      <c r="J131">
+        <v>500</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>300000</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131">
+        <v>0</v>
+      </c>
+      <c r="P131">
+        <v>0</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="R131">
+        <v>500</v>
+      </c>
+      <c r="S131">
+        <v>500</v>
+      </c>
+      <c r="T131">
+        <v>0</v>
+      </c>
+      <c r="U131">
+        <v>0</v>
+      </c>
+      <c r="V131">
+        <v>0</v>
+      </c>
+      <c r="W131">
+        <v>0</v>
+      </c>
+      <c r="X131">
+        <v>1240750</v>
+      </c>
+      <c r="Y131">
+        <v>607000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:25">
+      <c r="A132" s="2">
+        <v>45167</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>35000</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>29000</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>10500</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132">
+        <v>5000</v>
+      </c>
+      <c r="P132">
+        <v>0</v>
+      </c>
+      <c r="Q132">
+        <v>0</v>
+      </c>
+      <c r="R132">
+        <v>9000</v>
+      </c>
+      <c r="S132">
+        <v>0</v>
+      </c>
+      <c r="T132">
+        <v>0</v>
+      </c>
+      <c r="U132">
+        <v>0</v>
+      </c>
+      <c r="V132">
+        <v>17500</v>
+      </c>
+      <c r="W132">
+        <v>0</v>
+      </c>
+      <c r="X132">
+        <v>787500</v>
+      </c>
+      <c r="Y132">
+        <v>106000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:25">
+      <c r="A133" s="2">
+        <v>45168</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>101550</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>1395200</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>10500</v>
+      </c>
+      <c r="J133">
+        <v>1000</v>
+      </c>
+      <c r="K133">
+        <v>60000</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133">
+        <v>0</v>
+      </c>
+      <c r="P133">
+        <v>0</v>
+      </c>
+      <c r="Q133">
+        <v>0</v>
+      </c>
+      <c r="R133">
+        <v>105500</v>
+      </c>
+      <c r="S133">
+        <v>3000</v>
+      </c>
+      <c r="T133">
+        <v>0</v>
+      </c>
+      <c r="U133">
+        <v>0</v>
+      </c>
+      <c r="V133">
+        <v>15000</v>
+      </c>
+      <c r="W133">
+        <v>0</v>
+      </c>
+      <c r="X133">
+        <v>2303250</v>
+      </c>
+      <c r="Y133">
+        <v>1691750</v>
+      </c>
+    </row>
+    <row r="134" spans="1:25">
+      <c r="A134" s="2">
+        <v>45169</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>77500</v>
+      </c>
+      <c r="D134">
+        <v>69950</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>42500</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>1000</v>
+      </c>
+      <c r="K134">
+        <v>30000</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="O134">
+        <v>0</v>
+      </c>
+      <c r="P134">
+        <v>200000</v>
+      </c>
+      <c r="Q134">
+        <v>0</v>
+      </c>
+      <c r="R134">
+        <v>6500</v>
+      </c>
+      <c r="S134">
+        <v>0</v>
+      </c>
+      <c r="T134">
+        <v>0</v>
+      </c>
+      <c r="U134">
+        <v>0</v>
+      </c>
+      <c r="V134">
+        <v>0</v>
+      </c>
+      <c r="W134">
+        <v>0</v>
+      </c>
+      <c r="X134">
+        <v>950500</v>
+      </c>
+      <c r="Y134">
+        <v>427450</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Analyse_Globale.xlsx
+++ b/Analyse_Globale.xlsx
@@ -450,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y134"/>
+  <dimension ref="A1:Y164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -681,10 +681,10 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>686500</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>151210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>492200</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>89405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -835,10 +835,10 @@
         <v>30000</v>
       </c>
       <c r="X5">
-        <v>139500</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>165500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -912,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>157000</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>174000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -989,10 +989,10 @@
         <v>0</v>
       </c>
       <c r="X7">
-        <v>590500</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>176325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="X8">
-        <v>164500</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>113700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1143,10 +1143,10 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <v>289500</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>347750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1220,10 +1220,10 @@
         <v>45000</v>
       </c>
       <c r="X10">
-        <v>564600</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>119000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="X11">
-        <v>443000</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>2007660</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -10772,6 +10772,2316 @@
       </c>
       <c r="Y134">
         <v>427450</v>
+      </c>
+    </row>
+    <row r="135" spans="1:25">
+      <c r="A135" s="2">
+        <v>45170</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>72000</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>130000</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>21000</v>
+      </c>
+      <c r="J135">
+        <v>1000</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+      <c r="O135">
+        <v>0</v>
+      </c>
+      <c r="P135">
+        <v>0</v>
+      </c>
+      <c r="Q135">
+        <v>0</v>
+      </c>
+      <c r="R135">
+        <v>10500</v>
+      </c>
+      <c r="S135">
+        <v>0</v>
+      </c>
+      <c r="T135">
+        <v>0</v>
+      </c>
+      <c r="U135">
+        <v>0</v>
+      </c>
+      <c r="V135">
+        <v>0</v>
+      </c>
+      <c r="W135">
+        <v>0</v>
+      </c>
+      <c r="X135">
+        <v>1594500</v>
+      </c>
+      <c r="Y135">
+        <v>234500</v>
+      </c>
+    </row>
+    <row r="136" spans="1:25">
+      <c r="A136" s="2">
+        <v>45171</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>77500</v>
+      </c>
+      <c r="D136">
+        <v>90225</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>65500</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>2000</v>
+      </c>
+      <c r="J136">
+        <v>1000</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+      <c r="O136">
+        <v>0</v>
+      </c>
+      <c r="P136">
+        <v>0</v>
+      </c>
+      <c r="Q136">
+        <v>0</v>
+      </c>
+      <c r="R136">
+        <v>9000</v>
+      </c>
+      <c r="S136">
+        <v>0</v>
+      </c>
+      <c r="T136">
+        <v>0</v>
+      </c>
+      <c r="U136">
+        <v>0</v>
+      </c>
+      <c r="V136">
+        <v>0</v>
+      </c>
+      <c r="W136">
+        <v>0</v>
+      </c>
+      <c r="X136">
+        <v>1524750</v>
+      </c>
+      <c r="Y136">
+        <v>245225</v>
+      </c>
+    </row>
+    <row r="137" spans="1:25">
+      <c r="A137" s="2">
+        <v>45172</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>121425</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>2052550</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>8750</v>
+      </c>
+      <c r="J137">
+        <v>1000</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+      <c r="O137">
+        <v>0</v>
+      </c>
+      <c r="P137">
+        <v>0</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+      <c r="R137">
+        <v>0</v>
+      </c>
+      <c r="S137">
+        <v>0</v>
+      </c>
+      <c r="T137">
+        <v>0</v>
+      </c>
+      <c r="U137">
+        <v>0</v>
+      </c>
+      <c r="V137">
+        <v>0</v>
+      </c>
+      <c r="W137">
+        <v>0</v>
+      </c>
+      <c r="X137">
+        <v>2195500</v>
+      </c>
+      <c r="Y137">
+        <v>2183725</v>
+      </c>
+    </row>
+    <row r="138" spans="1:25">
+      <c r="A138" s="2">
+        <v>45173</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>77500</v>
+      </c>
+      <c r="D138">
+        <v>134000</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>1247500</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>2000</v>
+      </c>
+      <c r="J138">
+        <v>1000</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138">
+        <v>0</v>
+      </c>
+      <c r="P138">
+        <v>0</v>
+      </c>
+      <c r="Q138">
+        <v>0</v>
+      </c>
+      <c r="R138">
+        <v>39000</v>
+      </c>
+      <c r="S138">
+        <v>0</v>
+      </c>
+      <c r="T138">
+        <v>1600</v>
+      </c>
+      <c r="U138">
+        <v>0</v>
+      </c>
+      <c r="V138">
+        <v>0</v>
+      </c>
+      <c r="W138">
+        <v>0</v>
+      </c>
+      <c r="X138">
+        <v>822500</v>
+      </c>
+      <c r="Y138">
+        <v>1502600</v>
+      </c>
+    </row>
+    <row r="139" spans="1:25">
+      <c r="A139" s="2">
+        <v>45174</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>22000</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>35000</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="O139">
+        <v>0</v>
+      </c>
+      <c r="P139">
+        <v>0</v>
+      </c>
+      <c r="Q139">
+        <v>0</v>
+      </c>
+      <c r="R139">
+        <v>2000</v>
+      </c>
+      <c r="S139">
+        <v>0</v>
+      </c>
+      <c r="T139">
+        <v>0</v>
+      </c>
+      <c r="U139">
+        <v>0</v>
+      </c>
+      <c r="V139">
+        <v>365000</v>
+      </c>
+      <c r="W139">
+        <v>0</v>
+      </c>
+      <c r="X139">
+        <v>660500</v>
+      </c>
+      <c r="Y139">
+        <v>424000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:25">
+      <c r="A140" s="2">
+        <v>45175</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>73900</v>
+      </c>
+      <c r="E140">
+        <v>22500</v>
+      </c>
+      <c r="F140">
+        <v>223800</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>21000</v>
+      </c>
+      <c r="J140">
+        <v>1000</v>
+      </c>
+      <c r="K140">
+        <v>100000</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+      <c r="O140">
+        <v>0</v>
+      </c>
+      <c r="P140">
+        <v>0</v>
+      </c>
+      <c r="Q140">
+        <v>0</v>
+      </c>
+      <c r="R140">
+        <v>9000</v>
+      </c>
+      <c r="S140">
+        <v>0</v>
+      </c>
+      <c r="T140">
+        <v>2000</v>
+      </c>
+      <c r="U140">
+        <v>25000</v>
+      </c>
+      <c r="V140">
+        <v>115000</v>
+      </c>
+      <c r="W140">
+        <v>0</v>
+      </c>
+      <c r="X140">
+        <v>2406500</v>
+      </c>
+      <c r="Y140">
+        <v>593200</v>
+      </c>
+    </row>
+    <row r="141" spans="1:25">
+      <c r="A141" s="2">
+        <v>45176</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>77500</v>
+      </c>
+      <c r="D141">
+        <v>154150</v>
+      </c>
+      <c r="E141">
+        <v>37250</v>
+      </c>
+      <c r="F141">
+        <v>100000</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>10500</v>
+      </c>
+      <c r="J141">
+        <v>1000</v>
+      </c>
+      <c r="K141">
+        <v>35000</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+      <c r="O141">
+        <v>0</v>
+      </c>
+      <c r="P141">
+        <v>0</v>
+      </c>
+      <c r="Q141">
+        <v>100000</v>
+      </c>
+      <c r="R141">
+        <v>0</v>
+      </c>
+      <c r="S141">
+        <v>38500</v>
+      </c>
+      <c r="T141">
+        <v>0</v>
+      </c>
+      <c r="U141">
+        <v>8000</v>
+      </c>
+      <c r="V141">
+        <v>14500</v>
+      </c>
+      <c r="W141">
+        <v>0</v>
+      </c>
+      <c r="X141">
+        <v>1045500</v>
+      </c>
+      <c r="Y141">
+        <v>576400</v>
+      </c>
+    </row>
+    <row r="142" spans="1:25">
+      <c r="A142" s="2">
+        <v>45177</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>85200</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>84500</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>10500</v>
+      </c>
+      <c r="J142">
+        <v>1000</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>9000</v>
+      </c>
+      <c r="O142">
+        <v>0</v>
+      </c>
+      <c r="P142">
+        <v>0</v>
+      </c>
+      <c r="Q142">
+        <v>3000</v>
+      </c>
+      <c r="R142">
+        <v>10000</v>
+      </c>
+      <c r="S142">
+        <v>0</v>
+      </c>
+      <c r="T142">
+        <v>0</v>
+      </c>
+      <c r="U142">
+        <v>0</v>
+      </c>
+      <c r="V142">
+        <v>20000</v>
+      </c>
+      <c r="W142">
+        <v>0</v>
+      </c>
+      <c r="X142">
+        <v>2174500</v>
+      </c>
+      <c r="Y142">
+        <v>223200</v>
+      </c>
+    </row>
+    <row r="143" spans="1:25">
+      <c r="A143" s="2">
+        <v>45178</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>169100</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>1000</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+      <c r="O143">
+        <v>0</v>
+      </c>
+      <c r="P143">
+        <v>0</v>
+      </c>
+      <c r="Q143">
+        <v>0</v>
+      </c>
+      <c r="R143">
+        <v>2000</v>
+      </c>
+      <c r="S143">
+        <v>24000</v>
+      </c>
+      <c r="T143">
+        <v>500</v>
+      </c>
+      <c r="U143">
+        <v>0</v>
+      </c>
+      <c r="V143">
+        <v>61000</v>
+      </c>
+      <c r="W143">
+        <v>0</v>
+      </c>
+      <c r="X143">
+        <v>1908750</v>
+      </c>
+      <c r="Y143">
+        <v>257600</v>
+      </c>
+    </row>
+    <row r="144" spans="1:25">
+      <c r="A144" s="2">
+        <v>45179</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>77500</v>
+      </c>
+      <c r="D144">
+        <v>159800</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>52000</v>
+      </c>
+      <c r="G144">
+        <v>1890900</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>10500</v>
+      </c>
+      <c r="J144">
+        <v>1000</v>
+      </c>
+      <c r="K144">
+        <v>80000</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144">
+        <v>0</v>
+      </c>
+      <c r="P144">
+        <v>0</v>
+      </c>
+      <c r="Q144">
+        <v>0</v>
+      </c>
+      <c r="R144">
+        <v>30000</v>
+      </c>
+      <c r="S144">
+        <v>500</v>
+      </c>
+      <c r="T144">
+        <v>0</v>
+      </c>
+      <c r="U144">
+        <v>0</v>
+      </c>
+      <c r="V144">
+        <v>0</v>
+      </c>
+      <c r="W144">
+        <v>0</v>
+      </c>
+      <c r="X144">
+        <v>1258500</v>
+      </c>
+      <c r="Y144">
+        <v>2302200</v>
+      </c>
+    </row>
+    <row r="145" spans="1:25">
+      <c r="A145" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>91300</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>182000</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>1000</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+      <c r="O145">
+        <v>0</v>
+      </c>
+      <c r="P145">
+        <v>0</v>
+      </c>
+      <c r="Q145">
+        <v>0</v>
+      </c>
+      <c r="R145">
+        <v>10000</v>
+      </c>
+      <c r="S145">
+        <v>0</v>
+      </c>
+      <c r="T145">
+        <v>0</v>
+      </c>
+      <c r="U145">
+        <v>0</v>
+      </c>
+      <c r="V145">
+        <v>600000</v>
+      </c>
+      <c r="W145">
+        <v>80000</v>
+      </c>
+      <c r="X145">
+        <v>1447000</v>
+      </c>
+      <c r="Y145">
+        <v>964300</v>
+      </c>
+    </row>
+    <row r="146" spans="1:25">
+      <c r="A146" s="2">
+        <v>45181</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>25500</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>274000</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>6500</v>
+      </c>
+      <c r="J146">
+        <v>1000</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+      <c r="O146">
+        <v>0</v>
+      </c>
+      <c r="P146">
+        <v>0</v>
+      </c>
+      <c r="Q146">
+        <v>0</v>
+      </c>
+      <c r="R146">
+        <v>0</v>
+      </c>
+      <c r="S146">
+        <v>0</v>
+      </c>
+      <c r="T146">
+        <v>0</v>
+      </c>
+      <c r="U146">
+        <v>0</v>
+      </c>
+      <c r="V146">
+        <v>0</v>
+      </c>
+      <c r="W146">
+        <v>0</v>
+      </c>
+      <c r="X146">
+        <v>745000</v>
+      </c>
+      <c r="Y146">
+        <v>307000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:25">
+      <c r="A147" s="2">
+        <v>45182</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>123750</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>184000</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>10500</v>
+      </c>
+      <c r="J147">
+        <v>1000</v>
+      </c>
+      <c r="K147">
+        <v>85000</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>300500</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+      <c r="O147">
+        <v>0</v>
+      </c>
+      <c r="P147">
+        <v>0</v>
+      </c>
+      <c r="Q147">
+        <v>0</v>
+      </c>
+      <c r="R147">
+        <v>14000</v>
+      </c>
+      <c r="S147">
+        <v>0</v>
+      </c>
+      <c r="T147">
+        <v>0</v>
+      </c>
+      <c r="U147">
+        <v>0</v>
+      </c>
+      <c r="V147">
+        <v>120000</v>
+      </c>
+      <c r="W147">
+        <v>500</v>
+      </c>
+      <c r="X147">
+        <v>1215000</v>
+      </c>
+      <c r="Y147">
+        <v>839250</v>
+      </c>
+    </row>
+    <row r="148" spans="1:25">
+      <c r="A148" s="2">
+        <v>45183</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>77500</v>
+      </c>
+      <c r="D148">
+        <v>64100</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>877300</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>10500</v>
+      </c>
+      <c r="J148">
+        <v>1000</v>
+      </c>
+      <c r="K148">
+        <v>35000</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+      <c r="O148">
+        <v>0</v>
+      </c>
+      <c r="P148">
+        <v>0</v>
+      </c>
+      <c r="Q148">
+        <v>0</v>
+      </c>
+      <c r="R148">
+        <v>0</v>
+      </c>
+      <c r="S148">
+        <v>0</v>
+      </c>
+      <c r="T148">
+        <v>0</v>
+      </c>
+      <c r="U148">
+        <v>0</v>
+      </c>
+      <c r="V148">
+        <v>1000</v>
+      </c>
+      <c r="W148">
+        <v>0</v>
+      </c>
+      <c r="X148">
+        <v>1850500</v>
+      </c>
+      <c r="Y148">
+        <v>1066400</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25">
+      <c r="A149" s="2">
+        <v>45184</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>73000</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>163300</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>10500</v>
+      </c>
+      <c r="J149">
+        <v>1000</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+      <c r="O149">
+        <v>0</v>
+      </c>
+      <c r="P149">
+        <v>0</v>
+      </c>
+      <c r="Q149">
+        <v>0</v>
+      </c>
+      <c r="R149">
+        <v>4500</v>
+      </c>
+      <c r="S149">
+        <v>9500</v>
+      </c>
+      <c r="T149">
+        <v>0</v>
+      </c>
+      <c r="U149">
+        <v>40000</v>
+      </c>
+      <c r="V149">
+        <v>0</v>
+      </c>
+      <c r="W149">
+        <v>5000</v>
+      </c>
+      <c r="X149">
+        <v>1609100</v>
+      </c>
+      <c r="Y149">
+        <v>306800</v>
+      </c>
+    </row>
+    <row r="150" spans="1:25">
+      <c r="A150" s="2">
+        <v>45185</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>137000</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>53900</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>10500</v>
+      </c>
+      <c r="J150">
+        <v>1000</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+      <c r="O150">
+        <v>55000</v>
+      </c>
+      <c r="P150">
+        <v>0</v>
+      </c>
+      <c r="Q150">
+        <v>0</v>
+      </c>
+      <c r="R150">
+        <v>10000</v>
+      </c>
+      <c r="S150">
+        <v>0</v>
+      </c>
+      <c r="T150">
+        <v>0</v>
+      </c>
+      <c r="U150">
+        <v>0</v>
+      </c>
+      <c r="V150">
+        <v>0</v>
+      </c>
+      <c r="W150">
+        <v>51000</v>
+      </c>
+      <c r="X150">
+        <v>2004000</v>
+      </c>
+      <c r="Y150">
+        <v>318400</v>
+      </c>
+    </row>
+    <row r="151" spans="1:25">
+      <c r="A151" s="2">
+        <v>45186</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>77500</v>
+      </c>
+      <c r="D151">
+        <v>131125</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>29600</v>
+      </c>
+      <c r="G151">
+        <v>2267600</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>15750</v>
+      </c>
+      <c r="J151">
+        <v>1000</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+      <c r="O151">
+        <v>0</v>
+      </c>
+      <c r="P151">
+        <v>0</v>
+      </c>
+      <c r="Q151">
+        <v>0</v>
+      </c>
+      <c r="R151">
+        <v>0</v>
+      </c>
+      <c r="S151">
+        <v>0</v>
+      </c>
+      <c r="T151">
+        <v>0</v>
+      </c>
+      <c r="U151">
+        <v>0</v>
+      </c>
+      <c r="V151">
+        <v>0</v>
+      </c>
+      <c r="W151">
+        <v>0</v>
+      </c>
+      <c r="X151">
+        <v>1225750</v>
+      </c>
+      <c r="Y151">
+        <v>2522575</v>
+      </c>
+    </row>
+    <row r="152" spans="1:25">
+      <c r="A152" s="2">
+        <v>45187</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>170050</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>640000</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+      <c r="O152">
+        <v>0</v>
+      </c>
+      <c r="P152">
+        <v>0</v>
+      </c>
+      <c r="Q152">
+        <v>0</v>
+      </c>
+      <c r="R152">
+        <v>38000</v>
+      </c>
+      <c r="S152">
+        <v>0</v>
+      </c>
+      <c r="T152">
+        <v>0</v>
+      </c>
+      <c r="U152">
+        <v>0</v>
+      </c>
+      <c r="V152">
+        <v>0</v>
+      </c>
+      <c r="W152">
+        <v>105000</v>
+      </c>
+      <c r="X152">
+        <v>411000</v>
+      </c>
+      <c r="Y152">
+        <v>953050</v>
+      </c>
+    </row>
+    <row r="153" spans="1:25">
+      <c r="A153" s="2">
+        <v>45188</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>23500</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>5500</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>10500</v>
+      </c>
+      <c r="J153">
+        <v>1000</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>0</v>
+      </c>
+      <c r="O153">
+        <v>0</v>
+      </c>
+      <c r="P153">
+        <v>0</v>
+      </c>
+      <c r="Q153">
+        <v>0</v>
+      </c>
+      <c r="R153">
+        <v>0</v>
+      </c>
+      <c r="S153">
+        <v>0</v>
+      </c>
+      <c r="T153">
+        <v>0</v>
+      </c>
+      <c r="U153">
+        <v>0</v>
+      </c>
+      <c r="V153">
+        <v>0</v>
+      </c>
+      <c r="W153">
+        <v>0</v>
+      </c>
+      <c r="X153">
+        <v>841000</v>
+      </c>
+      <c r="Y153">
+        <v>40500</v>
+      </c>
+    </row>
+    <row r="154" spans="1:25">
+      <c r="A154" s="2">
+        <v>45189</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>77500</v>
+      </c>
+      <c r="D154">
+        <v>138500</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>38500</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>10500</v>
+      </c>
+      <c r="J154">
+        <v>1000</v>
+      </c>
+      <c r="K154">
+        <v>165000</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>0</v>
+      </c>
+      <c r="O154">
+        <v>0</v>
+      </c>
+      <c r="P154">
+        <v>0</v>
+      </c>
+      <c r="Q154">
+        <v>0</v>
+      </c>
+      <c r="R154">
+        <v>9000</v>
+      </c>
+      <c r="S154">
+        <v>0</v>
+      </c>
+      <c r="T154">
+        <v>0</v>
+      </c>
+      <c r="U154">
+        <v>25000</v>
+      </c>
+      <c r="V154">
+        <v>0</v>
+      </c>
+      <c r="W154">
+        <v>107000</v>
+      </c>
+      <c r="X154">
+        <v>1660750</v>
+      </c>
+      <c r="Y154">
+        <v>572000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:25">
+      <c r="A155" s="2">
+        <v>45190</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>70700</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>414000</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>10500</v>
+      </c>
+      <c r="J155">
+        <v>1000</v>
+      </c>
+      <c r="K155">
+        <v>70000</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
+      <c r="O155">
+        <v>0</v>
+      </c>
+      <c r="P155">
+        <v>0</v>
+      </c>
+      <c r="Q155">
+        <v>0</v>
+      </c>
+      <c r="R155">
+        <v>2000</v>
+      </c>
+      <c r="S155">
+        <v>0</v>
+      </c>
+      <c r="T155">
+        <v>0</v>
+      </c>
+      <c r="U155">
+        <v>0</v>
+      </c>
+      <c r="V155">
+        <v>0</v>
+      </c>
+      <c r="W155">
+        <v>105000</v>
+      </c>
+      <c r="X155">
+        <v>884000</v>
+      </c>
+      <c r="Y155">
+        <v>673200</v>
+      </c>
+    </row>
+    <row r="156" spans="1:25">
+      <c r="A156" s="2">
+        <v>45191</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>44650</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>49500</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>10500</v>
+      </c>
+      <c r="J156">
+        <v>1000</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <v>0</v>
+      </c>
+      <c r="O156">
+        <v>0</v>
+      </c>
+      <c r="P156">
+        <v>0</v>
+      </c>
+      <c r="Q156">
+        <v>1000</v>
+      </c>
+      <c r="R156">
+        <v>10600</v>
+      </c>
+      <c r="S156">
+        <v>0</v>
+      </c>
+      <c r="T156">
+        <v>0</v>
+      </c>
+      <c r="U156">
+        <v>0</v>
+      </c>
+      <c r="V156">
+        <v>0</v>
+      </c>
+      <c r="W156">
+        <v>0</v>
+      </c>
+      <c r="X156">
+        <v>1270000</v>
+      </c>
+      <c r="Y156">
+        <v>117250</v>
+      </c>
+    </row>
+    <row r="157" spans="1:25">
+      <c r="A157" s="2">
+        <v>45192</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>0</v>
+      </c>
+      <c r="O157">
+        <v>0</v>
+      </c>
+      <c r="P157">
+        <v>0</v>
+      </c>
+      <c r="Q157">
+        <v>0</v>
+      </c>
+      <c r="R157">
+        <v>0</v>
+      </c>
+      <c r="S157">
+        <v>0</v>
+      </c>
+      <c r="T157">
+        <v>0</v>
+      </c>
+      <c r="U157">
+        <v>0</v>
+      </c>
+      <c r="V157">
+        <v>0</v>
+      </c>
+      <c r="W157">
+        <v>0</v>
+      </c>
+      <c r="X157">
+        <v>0</v>
+      </c>
+      <c r="Y157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:25">
+      <c r="A158" s="2">
+        <v>45193</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>88400</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>4000</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>10500</v>
+      </c>
+      <c r="J158">
+        <v>1000</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>0</v>
+      </c>
+      <c r="O158">
+        <v>0</v>
+      </c>
+      <c r="P158">
+        <v>0</v>
+      </c>
+      <c r="Q158">
+        <v>0</v>
+      </c>
+      <c r="R158">
+        <v>8400</v>
+      </c>
+      <c r="S158">
+        <v>0</v>
+      </c>
+      <c r="T158">
+        <v>0</v>
+      </c>
+      <c r="U158">
+        <v>0</v>
+      </c>
+      <c r="V158">
+        <v>0</v>
+      </c>
+      <c r="W158">
+        <v>0</v>
+      </c>
+      <c r="X158">
+        <v>1222000</v>
+      </c>
+      <c r="Y158">
+        <v>112300</v>
+      </c>
+    </row>
+    <row r="159" spans="1:25">
+      <c r="A159" s="2">
+        <v>45194</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>144075</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>123000</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>1000</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>0</v>
+      </c>
+      <c r="O159">
+        <v>0</v>
+      </c>
+      <c r="P159">
+        <v>0</v>
+      </c>
+      <c r="Q159">
+        <v>0</v>
+      </c>
+      <c r="R159">
+        <v>0</v>
+      </c>
+      <c r="S159">
+        <v>0</v>
+      </c>
+      <c r="T159">
+        <v>0</v>
+      </c>
+      <c r="U159">
+        <v>0</v>
+      </c>
+      <c r="V159">
+        <v>165000</v>
+      </c>
+      <c r="W159">
+        <v>0</v>
+      </c>
+      <c r="X159">
+        <v>1755000</v>
+      </c>
+      <c r="Y159">
+        <v>433075</v>
+      </c>
+    </row>
+    <row r="160" spans="1:25">
+      <c r="A160" s="2">
+        <v>45195</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>47000</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>10500</v>
+      </c>
+      <c r="J160">
+        <v>1000</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>0</v>
+      </c>
+      <c r="O160">
+        <v>0</v>
+      </c>
+      <c r="P160">
+        <v>0</v>
+      </c>
+      <c r="Q160">
+        <v>0</v>
+      </c>
+      <c r="R160">
+        <v>0</v>
+      </c>
+      <c r="S160">
+        <v>0</v>
+      </c>
+      <c r="T160">
+        <v>0</v>
+      </c>
+      <c r="U160">
+        <v>50000</v>
+      </c>
+      <c r="V160">
+        <v>0</v>
+      </c>
+      <c r="W160">
+        <v>0</v>
+      </c>
+      <c r="X160">
+        <v>645250</v>
+      </c>
+      <c r="Y160">
+        <v>108500</v>
+      </c>
+    </row>
+    <row r="161" spans="1:25">
+      <c r="A161" s="2">
+        <v>45196</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>77500</v>
+      </c>
+      <c r="D161">
+        <v>86600</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>49800</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>10500</v>
+      </c>
+      <c r="J161">
+        <v>1000</v>
+      </c>
+      <c r="K161">
+        <v>50000</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+      <c r="O161">
+        <v>0</v>
+      </c>
+      <c r="P161">
+        <v>0</v>
+      </c>
+      <c r="Q161">
+        <v>0</v>
+      </c>
+      <c r="R161">
+        <v>40000</v>
+      </c>
+      <c r="S161">
+        <v>0</v>
+      </c>
+      <c r="T161">
+        <v>1000</v>
+      </c>
+      <c r="U161">
+        <v>0</v>
+      </c>
+      <c r="V161">
+        <v>6000</v>
+      </c>
+      <c r="W161">
+        <v>0</v>
+      </c>
+      <c r="X161">
+        <v>2072000</v>
+      </c>
+      <c r="Y161">
+        <v>322400</v>
+      </c>
+    </row>
+    <row r="162" spans="1:25">
+      <c r="A162" s="2">
+        <v>45197</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>103175</v>
+      </c>
+      <c r="E162">
+        <v>37250</v>
+      </c>
+      <c r="F162">
+        <v>53500</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>10500</v>
+      </c>
+      <c r="J162">
+        <v>1000</v>
+      </c>
+      <c r="K162">
+        <v>35000</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>0</v>
+      </c>
+      <c r="O162">
+        <v>0</v>
+      </c>
+      <c r="P162">
+        <v>0</v>
+      </c>
+      <c r="Q162">
+        <v>0</v>
+      </c>
+      <c r="R162">
+        <v>12600</v>
+      </c>
+      <c r="S162">
+        <v>0</v>
+      </c>
+      <c r="T162">
+        <v>0</v>
+      </c>
+      <c r="U162">
+        <v>0</v>
+      </c>
+      <c r="V162">
+        <v>0</v>
+      </c>
+      <c r="W162">
+        <v>25000</v>
+      </c>
+      <c r="X162">
+        <v>1455750</v>
+      </c>
+      <c r="Y162">
+        <v>278025</v>
+      </c>
+    </row>
+    <row r="163" spans="1:25">
+      <c r="A163" s="2">
+        <v>45198</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>77500</v>
+      </c>
+      <c r="D163">
+        <v>57775</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>188500</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>7000</v>
+      </c>
+      <c r="J163">
+        <v>1000</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+      <c r="O163">
+        <v>0</v>
+      </c>
+      <c r="P163">
+        <v>0</v>
+      </c>
+      <c r="Q163">
+        <v>0</v>
+      </c>
+      <c r="R163">
+        <v>0</v>
+      </c>
+      <c r="S163">
+        <v>0</v>
+      </c>
+      <c r="T163">
+        <v>3000</v>
+      </c>
+      <c r="U163">
+        <v>0</v>
+      </c>
+      <c r="V163">
+        <v>38000</v>
+      </c>
+      <c r="W163">
+        <v>0</v>
+      </c>
+      <c r="X163">
+        <v>1482250</v>
+      </c>
+      <c r="Y163">
+        <v>372775</v>
+      </c>
+    </row>
+    <row r="164" spans="1:25">
+      <c r="A164" s="2">
+        <v>45199</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+      <c r="O164">
+        <v>0</v>
+      </c>
+      <c r="P164">
+        <v>200000</v>
+      </c>
+      <c r="Q164">
+        <v>0</v>
+      </c>
+      <c r="R164">
+        <v>0</v>
+      </c>
+      <c r="S164">
+        <v>0</v>
+      </c>
+      <c r="T164">
+        <v>0</v>
+      </c>
+      <c r="U164">
+        <v>0</v>
+      </c>
+      <c r="V164">
+        <v>0</v>
+      </c>
+      <c r="W164">
+        <v>0</v>
+      </c>
+      <c r="X164">
+        <v>0</v>
+      </c>
+      <c r="Y164">
+        <v>200000</v>
       </c>
     </row>
   </sheetData>

--- a/Analyse_Globale.xlsx
+++ b/Analyse_Globale.xlsx
@@ -450,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y164"/>
+  <dimension ref="A1:Y195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1374,10 +1374,10 @@
         <v>0</v>
       </c>
       <c r="X12">
-        <v>300500</v>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <v>584400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1451,10 +1451,10 @@
         <v>97000</v>
       </c>
       <c r="X13">
-        <v>136000</v>
+        <v>0</v>
       </c>
       <c r="Y13">
-        <v>130500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1528,10 +1528,10 @@
         <v>7000</v>
       </c>
       <c r="X14">
-        <v>211500</v>
+        <v>0</v>
       </c>
       <c r="Y14">
-        <v>78650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1605,10 +1605,10 @@
         <v>0</v>
       </c>
       <c r="X15">
-        <v>267500</v>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <v>218750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1682,10 +1682,10 @@
         <v>0</v>
       </c>
       <c r="X16">
-        <v>399800</v>
+        <v>0</v>
       </c>
       <c r="Y16">
-        <v>230300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -1759,10 +1759,10 @@
         <v>0</v>
       </c>
       <c r="X17">
-        <v>381600</v>
+        <v>0</v>
       </c>
       <c r="Y17">
-        <v>91500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -1836,10 +1836,10 @@
         <v>0</v>
       </c>
       <c r="X18">
-        <v>249500</v>
+        <v>0</v>
       </c>
       <c r="Y18">
-        <v>164500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -1913,10 +1913,10 @@
         <v>57000</v>
       </c>
       <c r="X19">
-        <v>95000</v>
+        <v>0</v>
       </c>
       <c r="Y19">
-        <v>187150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -1990,10 +1990,10 @@
         <v>15000</v>
       </c>
       <c r="X20">
-        <v>156000</v>
+        <v>0</v>
       </c>
       <c r="Y20">
-        <v>335327.39623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2067,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X21">
-        <v>440500</v>
+        <v>0</v>
       </c>
       <c r="Y21">
-        <v>133200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2144,10 +2144,10 @@
         <v>140000</v>
       </c>
       <c r="X22">
-        <v>150400</v>
+        <v>0</v>
       </c>
       <c r="Y22">
-        <v>296300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2221,10 +2221,10 @@
         <v>0</v>
       </c>
       <c r="X23">
-        <v>752500</v>
+        <v>0</v>
       </c>
       <c r="Y23">
-        <v>100150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2298,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="X24">
-        <v>771000</v>
+        <v>0</v>
       </c>
       <c r="Y24">
-        <v>154750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -2375,10 +2375,10 @@
         <v>13000</v>
       </c>
       <c r="X25">
-        <v>845500</v>
+        <v>0</v>
       </c>
       <c r="Y25">
-        <v>166750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -2452,10 +2452,10 @@
         <v>50000</v>
       </c>
       <c r="X26">
-        <v>638500</v>
+        <v>0</v>
       </c>
       <c r="Y26">
-        <v>1359175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -2529,10 +2529,10 @@
         <v>50000</v>
       </c>
       <c r="X27">
-        <v>273000</v>
+        <v>0</v>
       </c>
       <c r="Y27">
-        <v>313250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -2606,10 +2606,10 @@
         <v>0</v>
       </c>
       <c r="X28">
-        <v>931000</v>
+        <v>0</v>
       </c>
       <c r="Y28">
-        <v>406525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -2683,10 +2683,10 @@
         <v>0</v>
       </c>
       <c r="X29">
-        <v>419000</v>
+        <v>0</v>
       </c>
       <c r="Y29">
-        <v>187950</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -2760,10 +2760,10 @@
         <v>70000</v>
       </c>
       <c r="X30">
-        <v>375000</v>
+        <v>0</v>
       </c>
       <c r="Y30">
-        <v>360050</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -2837,10 +2837,10 @@
         <v>19000</v>
       </c>
       <c r="X31">
-        <v>745250</v>
+        <v>0</v>
       </c>
       <c r="Y31">
-        <v>125900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -2914,10 +2914,10 @@
         <v>0</v>
       </c>
       <c r="X32">
-        <v>276500</v>
+        <v>0</v>
       </c>
       <c r="Y32">
-        <v>403772.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -2991,10 +2991,10 @@
         <v>0</v>
       </c>
       <c r="X33">
-        <v>214150</v>
+        <v>0</v>
       </c>
       <c r="Y33">
-        <v>805850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:25">
@@ -3068,10 +3068,10 @@
         <v>0</v>
       </c>
       <c r="X34">
-        <v>446500</v>
+        <v>0</v>
       </c>
       <c r="Y34">
-        <v>63000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:25">
@@ -3145,10 +3145,10 @@
         <v>54000</v>
       </c>
       <c r="X35">
-        <v>186600</v>
+        <v>0</v>
       </c>
       <c r="Y35">
-        <v>323850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:25">
@@ -3222,10 +3222,10 @@
         <v>0</v>
       </c>
       <c r="X36">
-        <v>245500</v>
+        <v>0</v>
       </c>
       <c r="Y36">
-        <v>127600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:25">
@@ -3299,10 +3299,10 @@
         <v>0</v>
       </c>
       <c r="X37">
-        <v>302000</v>
+        <v>0</v>
       </c>
       <c r="Y37">
-        <v>122650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:25">
@@ -3376,10 +3376,10 @@
         <v>45500</v>
       </c>
       <c r="X38">
-        <v>481500</v>
+        <v>0</v>
       </c>
       <c r="Y38">
-        <v>176750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:25">
@@ -3453,10 +3453,10 @@
         <v>178500</v>
       </c>
       <c r="X39">
-        <v>615250</v>
+        <v>0</v>
       </c>
       <c r="Y39">
-        <v>663600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:25">
@@ -3530,10 +3530,10 @@
         <v>5000</v>
       </c>
       <c r="X40">
-        <v>214500</v>
+        <v>0</v>
       </c>
       <c r="Y40">
-        <v>135800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:25">
@@ -3607,10 +3607,10 @@
         <v>0</v>
       </c>
       <c r="X41">
-        <v>209250</v>
+        <v>0</v>
       </c>
       <c r="Y41">
-        <v>111450</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:25">
@@ -3684,10 +3684,10 @@
         <v>80000</v>
       </c>
       <c r="X42">
-        <v>494250</v>
+        <v>0</v>
       </c>
       <c r="Y42">
-        <v>2530650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:25">
@@ -13082,6 +13082,2393 @@
       </c>
       <c r="Y164">
         <v>200000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:25">
+      <c r="A165" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>65850</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>123500</v>
+      </c>
+      <c r="G165">
+        <v>2027450</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>14000</v>
+      </c>
+      <c r="J165">
+        <v>1000</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>0</v>
+      </c>
+      <c r="O165">
+        <v>0</v>
+      </c>
+      <c r="P165">
+        <v>0</v>
+      </c>
+      <c r="Q165">
+        <v>0</v>
+      </c>
+      <c r="R165">
+        <v>5000</v>
+      </c>
+      <c r="S165">
+        <v>0</v>
+      </c>
+      <c r="T165">
+        <v>0</v>
+      </c>
+      <c r="U165">
+        <v>0</v>
+      </c>
+      <c r="V165">
+        <v>0</v>
+      </c>
+      <c r="W165">
+        <v>0</v>
+      </c>
+      <c r="X165">
+        <v>0</v>
+      </c>
+      <c r="Y165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:25">
+      <c r="A166" s="2">
+        <v>45201</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>77500</v>
+      </c>
+      <c r="D166">
+        <v>215525</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>1000</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>0</v>
+      </c>
+      <c r="O166">
+        <v>0</v>
+      </c>
+      <c r="P166">
+        <v>0</v>
+      </c>
+      <c r="Q166">
+        <v>0</v>
+      </c>
+      <c r="R166">
+        <v>9000</v>
+      </c>
+      <c r="S166">
+        <v>4400</v>
+      </c>
+      <c r="T166">
+        <v>0</v>
+      </c>
+      <c r="U166">
+        <v>0</v>
+      </c>
+      <c r="V166">
+        <v>0</v>
+      </c>
+      <c r="W166">
+        <v>40000</v>
+      </c>
+      <c r="X166">
+        <v>0</v>
+      </c>
+      <c r="Y166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:25">
+      <c r="A167" s="2">
+        <v>45202</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>19000</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>209000</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>10500</v>
+      </c>
+      <c r="J167">
+        <v>1000</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167">
+        <v>0</v>
+      </c>
+      <c r="O167">
+        <v>0</v>
+      </c>
+      <c r="P167">
+        <v>0</v>
+      </c>
+      <c r="Q167">
+        <v>0</v>
+      </c>
+      <c r="R167">
+        <v>0</v>
+      </c>
+      <c r="S167">
+        <v>0</v>
+      </c>
+      <c r="T167">
+        <v>0</v>
+      </c>
+      <c r="U167">
+        <v>0</v>
+      </c>
+      <c r="V167">
+        <v>247500</v>
+      </c>
+      <c r="W167">
+        <v>0</v>
+      </c>
+      <c r="X167">
+        <v>0</v>
+      </c>
+      <c r="Y167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:25">
+      <c r="A168" s="2">
+        <v>45203</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168">
+        <v>79350</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>7000</v>
+      </c>
+      <c r="J168">
+        <v>1000</v>
+      </c>
+      <c r="K168">
+        <v>50000</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>250000</v>
+      </c>
+      <c r="N168">
+        <v>0</v>
+      </c>
+      <c r="O168">
+        <v>0</v>
+      </c>
+      <c r="P168">
+        <v>0</v>
+      </c>
+      <c r="Q168">
+        <v>1500</v>
+      </c>
+      <c r="R168">
+        <v>10600</v>
+      </c>
+      <c r="S168">
+        <v>0</v>
+      </c>
+      <c r="T168">
+        <v>0</v>
+      </c>
+      <c r="U168">
+        <v>0</v>
+      </c>
+      <c r="V168">
+        <v>0</v>
+      </c>
+      <c r="W168">
+        <v>0</v>
+      </c>
+      <c r="X168">
+        <v>0</v>
+      </c>
+      <c r="Y168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:25">
+      <c r="A169" s="2">
+        <v>45204</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169">
+        <v>77500</v>
+      </c>
+      <c r="D169">
+        <v>121550</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>886000</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>5000</v>
+      </c>
+      <c r="J169">
+        <v>1000</v>
+      </c>
+      <c r="K169">
+        <v>55000</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169">
+        <v>0</v>
+      </c>
+      <c r="O169">
+        <v>0</v>
+      </c>
+      <c r="P169">
+        <v>0</v>
+      </c>
+      <c r="Q169">
+        <v>0</v>
+      </c>
+      <c r="R169">
+        <v>0</v>
+      </c>
+      <c r="S169">
+        <v>0</v>
+      </c>
+      <c r="T169">
+        <v>0</v>
+      </c>
+      <c r="U169">
+        <v>0</v>
+      </c>
+      <c r="V169">
+        <v>1000</v>
+      </c>
+      <c r="W169">
+        <v>0</v>
+      </c>
+      <c r="X169">
+        <v>0</v>
+      </c>
+      <c r="Y169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:25">
+      <c r="A170" s="2">
+        <v>45205</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>99750</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>187000</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <v>10500</v>
+      </c>
+      <c r="J170">
+        <v>1000</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <v>0</v>
+      </c>
+      <c r="O170">
+        <v>0</v>
+      </c>
+      <c r="P170">
+        <v>0</v>
+      </c>
+      <c r="Q170">
+        <v>0</v>
+      </c>
+      <c r="R170">
+        <v>42000</v>
+      </c>
+      <c r="S170">
+        <v>0</v>
+      </c>
+      <c r="T170">
+        <v>0</v>
+      </c>
+      <c r="U170">
+        <v>3700</v>
+      </c>
+      <c r="V170">
+        <v>0</v>
+      </c>
+      <c r="W170">
+        <v>0</v>
+      </c>
+      <c r="X170">
+        <v>0</v>
+      </c>
+      <c r="Y170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:25">
+      <c r="A171" s="2">
+        <v>45206</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <v>112100</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>118400</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>8750</v>
+      </c>
+      <c r="J171">
+        <v>1000</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171">
+        <v>0</v>
+      </c>
+      <c r="O171">
+        <v>0</v>
+      </c>
+      <c r="P171">
+        <v>0</v>
+      </c>
+      <c r="Q171">
+        <v>0</v>
+      </c>
+      <c r="R171">
+        <v>30000</v>
+      </c>
+      <c r="S171">
+        <v>600</v>
+      </c>
+      <c r="T171">
+        <v>0</v>
+      </c>
+      <c r="U171">
+        <v>0</v>
+      </c>
+      <c r="V171">
+        <v>12500</v>
+      </c>
+      <c r="W171">
+        <v>0</v>
+      </c>
+      <c r="X171">
+        <v>0</v>
+      </c>
+      <c r="Y171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:25">
+      <c r="A172" s="2">
+        <v>45207</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172">
+        <v>77500</v>
+      </c>
+      <c r="D172">
+        <v>54450</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>295500</v>
+      </c>
+      <c r="G172">
+        <v>1856550</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>17500</v>
+      </c>
+      <c r="J172">
+        <v>1000</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>0</v>
+      </c>
+      <c r="O172">
+        <v>0</v>
+      </c>
+      <c r="P172">
+        <v>0</v>
+      </c>
+      <c r="Q172">
+        <v>0</v>
+      </c>
+      <c r="R172">
+        <v>0</v>
+      </c>
+      <c r="S172">
+        <v>160000</v>
+      </c>
+      <c r="T172">
+        <v>500</v>
+      </c>
+      <c r="U172">
+        <v>0</v>
+      </c>
+      <c r="V172">
+        <v>435000</v>
+      </c>
+      <c r="W172">
+        <v>0</v>
+      </c>
+      <c r="X172">
+        <v>0</v>
+      </c>
+      <c r="Y172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:25">
+      <c r="A173" s="2">
+        <v>45208</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>15000</v>
+      </c>
+      <c r="D173">
+        <v>106950</v>
+      </c>
+      <c r="E173">
+        <v>37250</v>
+      </c>
+      <c r="F173">
+        <v>30000</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>1000</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+      <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173">
+        <v>0</v>
+      </c>
+      <c r="O173">
+        <v>0</v>
+      </c>
+      <c r="P173">
+        <v>0</v>
+      </c>
+      <c r="Q173">
+        <v>0</v>
+      </c>
+      <c r="R173">
+        <v>10600</v>
+      </c>
+      <c r="S173">
+        <v>0</v>
+      </c>
+      <c r="T173">
+        <v>0</v>
+      </c>
+      <c r="U173">
+        <v>5000</v>
+      </c>
+      <c r="V173">
+        <v>0</v>
+      </c>
+      <c r="W173">
+        <v>0</v>
+      </c>
+      <c r="X173">
+        <v>0</v>
+      </c>
+      <c r="Y173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:25">
+      <c r="A174" s="2">
+        <v>45209</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>17500</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>41000</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>10500</v>
+      </c>
+      <c r="J174">
+        <v>1000</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <v>0</v>
+      </c>
+      <c r="O174">
+        <v>0</v>
+      </c>
+      <c r="P174">
+        <v>0</v>
+      </c>
+      <c r="Q174">
+        <v>0</v>
+      </c>
+      <c r="R174">
+        <v>1600</v>
+      </c>
+      <c r="S174">
+        <v>0</v>
+      </c>
+      <c r="T174">
+        <v>0</v>
+      </c>
+      <c r="U174">
+        <v>0</v>
+      </c>
+      <c r="V174">
+        <v>0</v>
+      </c>
+      <c r="W174">
+        <v>0</v>
+      </c>
+      <c r="X174">
+        <v>0</v>
+      </c>
+      <c r="Y174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:25">
+      <c r="A175" s="2">
+        <v>45210</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>77500</v>
+      </c>
+      <c r="D175">
+        <v>58125</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>620500</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>10500</v>
+      </c>
+      <c r="J175">
+        <v>1000</v>
+      </c>
+      <c r="K175">
+        <v>90000</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>0</v>
+      </c>
+      <c r="O175">
+        <v>0</v>
+      </c>
+      <c r="P175">
+        <v>0</v>
+      </c>
+      <c r="Q175">
+        <v>0</v>
+      </c>
+      <c r="R175">
+        <v>10600</v>
+      </c>
+      <c r="S175">
+        <v>0</v>
+      </c>
+      <c r="T175">
+        <v>0</v>
+      </c>
+      <c r="U175">
+        <v>90000</v>
+      </c>
+      <c r="V175">
+        <v>35000</v>
+      </c>
+      <c r="W175">
+        <v>0</v>
+      </c>
+      <c r="X175">
+        <v>0</v>
+      </c>
+      <c r="Y175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:25">
+      <c r="A176" s="2">
+        <v>45211</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>163700</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>126400</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>10500</v>
+      </c>
+      <c r="J176">
+        <v>1000</v>
+      </c>
+      <c r="K176">
+        <v>35000</v>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <v>0</v>
+      </c>
+      <c r="O176">
+        <v>0</v>
+      </c>
+      <c r="P176">
+        <v>0</v>
+      </c>
+      <c r="Q176">
+        <v>1400</v>
+      </c>
+      <c r="R176">
+        <v>10600</v>
+      </c>
+      <c r="S176">
+        <v>0</v>
+      </c>
+      <c r="T176">
+        <v>0</v>
+      </c>
+      <c r="U176">
+        <v>0</v>
+      </c>
+      <c r="V176">
+        <v>0</v>
+      </c>
+      <c r="W176">
+        <v>0</v>
+      </c>
+      <c r="X176">
+        <v>0</v>
+      </c>
+      <c r="Y176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:25">
+      <c r="A177" s="2">
+        <v>45212</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <v>149650</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>393200</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>1000</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>0</v>
+      </c>
+      <c r="O177">
+        <v>0</v>
+      </c>
+      <c r="P177">
+        <v>0</v>
+      </c>
+      <c r="Q177">
+        <v>0</v>
+      </c>
+      <c r="R177">
+        <v>0</v>
+      </c>
+      <c r="S177">
+        <v>0</v>
+      </c>
+      <c r="T177">
+        <v>2000</v>
+      </c>
+      <c r="U177">
+        <v>157800</v>
+      </c>
+      <c r="V177">
+        <v>0</v>
+      </c>
+      <c r="W177">
+        <v>0</v>
+      </c>
+      <c r="X177">
+        <v>0</v>
+      </c>
+      <c r="Y177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:25">
+      <c r="A178" s="2">
+        <v>45213</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="C178">
+        <v>77500</v>
+      </c>
+      <c r="D178">
+        <v>82600</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>82000</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>1000</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+      <c r="M178">
+        <v>250000</v>
+      </c>
+      <c r="N178">
+        <v>0</v>
+      </c>
+      <c r="O178">
+        <v>0</v>
+      </c>
+      <c r="P178">
+        <v>0</v>
+      </c>
+      <c r="Q178">
+        <v>0</v>
+      </c>
+      <c r="R178">
+        <v>9000</v>
+      </c>
+      <c r="S178">
+        <v>0</v>
+      </c>
+      <c r="T178">
+        <v>0</v>
+      </c>
+      <c r="U178">
+        <v>80700</v>
+      </c>
+      <c r="V178">
+        <v>170000</v>
+      </c>
+      <c r="W178">
+        <v>0</v>
+      </c>
+      <c r="X178">
+        <v>0</v>
+      </c>
+      <c r="Y178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:25">
+      <c r="A179" s="2">
+        <v>45214</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>77500</v>
+      </c>
+      <c r="D179">
+        <v>155100</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>134000</v>
+      </c>
+      <c r="G179">
+        <v>1440000</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>31500</v>
+      </c>
+      <c r="J179">
+        <v>1000</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179">
+        <v>0</v>
+      </c>
+      <c r="O179">
+        <v>0</v>
+      </c>
+      <c r="P179">
+        <v>0</v>
+      </c>
+      <c r="Q179">
+        <v>0</v>
+      </c>
+      <c r="R179">
+        <v>9000</v>
+      </c>
+      <c r="S179">
+        <v>0</v>
+      </c>
+      <c r="T179">
+        <v>0</v>
+      </c>
+      <c r="U179">
+        <v>0</v>
+      </c>
+      <c r="V179">
+        <v>0</v>
+      </c>
+      <c r="W179">
+        <v>0</v>
+      </c>
+      <c r="X179">
+        <v>0</v>
+      </c>
+      <c r="Y179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:25">
+      <c r="A180" s="2">
+        <v>45215</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>141650</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>1000</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <v>0</v>
+      </c>
+      <c r="O180">
+        <v>55000</v>
+      </c>
+      <c r="P180">
+        <v>0</v>
+      </c>
+      <c r="Q180">
+        <v>0</v>
+      </c>
+      <c r="R180">
+        <v>39500</v>
+      </c>
+      <c r="S180">
+        <v>0</v>
+      </c>
+      <c r="T180">
+        <v>5000</v>
+      </c>
+      <c r="U180">
+        <v>0</v>
+      </c>
+      <c r="V180">
+        <v>0</v>
+      </c>
+      <c r="W180">
+        <v>15000</v>
+      </c>
+      <c r="X180">
+        <v>0</v>
+      </c>
+      <c r="Y180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:25">
+      <c r="A181" s="2">
+        <v>45216</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>19000</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>336000</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>1000</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>0</v>
+      </c>
+      <c r="O181">
+        <v>0</v>
+      </c>
+      <c r="P181">
+        <v>0</v>
+      </c>
+      <c r="Q181">
+        <v>2000</v>
+      </c>
+      <c r="R181">
+        <v>32000</v>
+      </c>
+      <c r="S181">
+        <v>0</v>
+      </c>
+      <c r="T181">
+        <v>0</v>
+      </c>
+      <c r="U181">
+        <v>0</v>
+      </c>
+      <c r="V181">
+        <v>0</v>
+      </c>
+      <c r="W181">
+        <v>0</v>
+      </c>
+      <c r="X181">
+        <v>0</v>
+      </c>
+      <c r="Y181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:25">
+      <c r="A182" s="2">
+        <v>45217</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>100050</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>65400</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182">
+        <v>10000</v>
+      </c>
+      <c r="J182">
+        <v>1000</v>
+      </c>
+      <c r="K182">
+        <v>50000</v>
+      </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+      <c r="M182">
+        <v>0</v>
+      </c>
+      <c r="N182">
+        <v>0</v>
+      </c>
+      <c r="O182">
+        <v>0</v>
+      </c>
+      <c r="P182">
+        <v>0</v>
+      </c>
+      <c r="Q182">
+        <v>1000</v>
+      </c>
+      <c r="R182">
+        <v>4100</v>
+      </c>
+      <c r="S182">
+        <v>0</v>
+      </c>
+      <c r="T182">
+        <v>1000</v>
+      </c>
+      <c r="U182">
+        <v>0</v>
+      </c>
+      <c r="V182">
+        <v>18300</v>
+      </c>
+      <c r="W182">
+        <v>0</v>
+      </c>
+      <c r="X182">
+        <v>0</v>
+      </c>
+      <c r="Y182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:25">
+      <c r="A183" s="2">
+        <v>45218</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>77500</v>
+      </c>
+      <c r="D183">
+        <v>170400</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>73500</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>1000</v>
+      </c>
+      <c r="K183">
+        <v>35000</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+      <c r="M183">
+        <v>0</v>
+      </c>
+      <c r="N183">
+        <v>0</v>
+      </c>
+      <c r="O183">
+        <v>0</v>
+      </c>
+      <c r="P183">
+        <v>0</v>
+      </c>
+      <c r="Q183">
+        <v>0</v>
+      </c>
+      <c r="R183">
+        <v>9000</v>
+      </c>
+      <c r="S183">
+        <v>0</v>
+      </c>
+      <c r="T183">
+        <v>0</v>
+      </c>
+      <c r="U183">
+        <v>0</v>
+      </c>
+      <c r="V183">
+        <v>43500</v>
+      </c>
+      <c r="W183">
+        <v>0</v>
+      </c>
+      <c r="X183">
+        <v>0</v>
+      </c>
+      <c r="Y183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:25">
+      <c r="A184" s="2">
+        <v>45219</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>68350</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>413000</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>10500</v>
+      </c>
+      <c r="J184">
+        <v>1000</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184">
+        <v>0</v>
+      </c>
+      <c r="O184">
+        <v>0</v>
+      </c>
+      <c r="P184">
+        <v>0</v>
+      </c>
+      <c r="Q184">
+        <v>0</v>
+      </c>
+      <c r="R184">
+        <v>10600</v>
+      </c>
+      <c r="S184">
+        <v>0</v>
+      </c>
+      <c r="T184">
+        <v>0</v>
+      </c>
+      <c r="U184">
+        <v>0</v>
+      </c>
+      <c r="V184">
+        <v>13000</v>
+      </c>
+      <c r="W184">
+        <v>0</v>
+      </c>
+      <c r="X184">
+        <v>0</v>
+      </c>
+      <c r="Y184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:25">
+      <c r="A185" s="2">
+        <v>45220</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185">
+        <v>77500</v>
+      </c>
+      <c r="D185">
+        <v>145650</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185">
+        <v>10500</v>
+      </c>
+      <c r="J185">
+        <v>1000</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+      <c r="M185">
+        <v>75000</v>
+      </c>
+      <c r="N185">
+        <v>0</v>
+      </c>
+      <c r="O185">
+        <v>0</v>
+      </c>
+      <c r="P185">
+        <v>0</v>
+      </c>
+      <c r="Q185">
+        <v>0</v>
+      </c>
+      <c r="R185">
+        <v>0</v>
+      </c>
+      <c r="S185">
+        <v>0</v>
+      </c>
+      <c r="T185">
+        <v>0</v>
+      </c>
+      <c r="U185">
+        <v>0</v>
+      </c>
+      <c r="V185">
+        <v>62000</v>
+      </c>
+      <c r="W185">
+        <v>0</v>
+      </c>
+      <c r="X185">
+        <v>0</v>
+      </c>
+      <c r="Y185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:25">
+      <c r="A186" s="2">
+        <v>45221</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>115250</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>57000</v>
+      </c>
+      <c r="G186">
+        <v>1696900</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>17500</v>
+      </c>
+      <c r="J186">
+        <v>1000</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+      <c r="M186">
+        <v>0</v>
+      </c>
+      <c r="N186">
+        <v>0</v>
+      </c>
+      <c r="O186">
+        <v>0</v>
+      </c>
+      <c r="P186">
+        <v>0</v>
+      </c>
+      <c r="Q186">
+        <v>0</v>
+      </c>
+      <c r="R186">
+        <v>2800</v>
+      </c>
+      <c r="S186">
+        <v>0</v>
+      </c>
+      <c r="T186">
+        <v>0</v>
+      </c>
+      <c r="U186">
+        <v>0</v>
+      </c>
+      <c r="V186">
+        <v>21000</v>
+      </c>
+      <c r="W186">
+        <v>0</v>
+      </c>
+      <c r="X186">
+        <v>0</v>
+      </c>
+      <c r="Y186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:25">
+      <c r="A187" s="2">
+        <v>45222</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>203050</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>642500</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>1000</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <v>0</v>
+      </c>
+      <c r="O187">
+        <v>0</v>
+      </c>
+      <c r="P187">
+        <v>0</v>
+      </c>
+      <c r="Q187">
+        <v>0</v>
+      </c>
+      <c r="R187">
+        <v>64000</v>
+      </c>
+      <c r="S187">
+        <v>9000</v>
+      </c>
+      <c r="T187">
+        <v>0</v>
+      </c>
+      <c r="U187">
+        <v>20000</v>
+      </c>
+      <c r="V187">
+        <v>0</v>
+      </c>
+      <c r="W187">
+        <v>0</v>
+      </c>
+      <c r="X187">
+        <v>0</v>
+      </c>
+      <c r="Y187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:25">
+      <c r="A188" s="2">
+        <v>45223</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>25500</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>89000</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>10500</v>
+      </c>
+      <c r="J188">
+        <v>1000</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <v>0</v>
+      </c>
+      <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188">
+        <v>0</v>
+      </c>
+      <c r="O188">
+        <v>0</v>
+      </c>
+      <c r="P188">
+        <v>0</v>
+      </c>
+      <c r="Q188">
+        <v>0</v>
+      </c>
+      <c r="R188">
+        <v>0</v>
+      </c>
+      <c r="S188">
+        <v>0</v>
+      </c>
+      <c r="T188">
+        <v>0</v>
+      </c>
+      <c r="U188">
+        <v>0</v>
+      </c>
+      <c r="V188">
+        <v>0</v>
+      </c>
+      <c r="W188">
+        <v>0</v>
+      </c>
+      <c r="X188">
+        <v>0</v>
+      </c>
+      <c r="Y188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:25">
+      <c r="A189" s="2">
+        <v>45224</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189">
+        <v>77500</v>
+      </c>
+      <c r="D189">
+        <v>120325</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>51500</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>10500</v>
+      </c>
+      <c r="J189">
+        <v>1000</v>
+      </c>
+      <c r="K189">
+        <v>60000</v>
+      </c>
+      <c r="L189">
+        <v>0</v>
+      </c>
+      <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189">
+        <v>0</v>
+      </c>
+      <c r="O189">
+        <v>0</v>
+      </c>
+      <c r="P189">
+        <v>0</v>
+      </c>
+      <c r="Q189">
+        <v>0</v>
+      </c>
+      <c r="R189">
+        <v>9000</v>
+      </c>
+      <c r="S189">
+        <v>500</v>
+      </c>
+      <c r="T189">
+        <v>0</v>
+      </c>
+      <c r="U189">
+        <v>0</v>
+      </c>
+      <c r="V189">
+        <v>0</v>
+      </c>
+      <c r="W189">
+        <v>0</v>
+      </c>
+      <c r="X189">
+        <v>0</v>
+      </c>
+      <c r="Y189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:25">
+      <c r="A190" s="2">
+        <v>45225</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>121800</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>858900</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190">
+        <v>10500</v>
+      </c>
+      <c r="J190">
+        <v>2000</v>
+      </c>
+      <c r="K190">
+        <v>35000</v>
+      </c>
+      <c r="L190">
+        <v>0</v>
+      </c>
+      <c r="M190">
+        <v>0</v>
+      </c>
+      <c r="N190">
+        <v>0</v>
+      </c>
+      <c r="O190">
+        <v>0</v>
+      </c>
+      <c r="P190">
+        <v>0</v>
+      </c>
+      <c r="Q190">
+        <v>0</v>
+      </c>
+      <c r="R190">
+        <v>10600</v>
+      </c>
+      <c r="S190">
+        <v>0</v>
+      </c>
+      <c r="T190">
+        <v>11000</v>
+      </c>
+      <c r="U190">
+        <v>37000</v>
+      </c>
+      <c r="V190">
+        <v>0</v>
+      </c>
+      <c r="W190">
+        <v>0</v>
+      </c>
+      <c r="X190">
+        <v>0</v>
+      </c>
+      <c r="Y190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:25">
+      <c r="A191" s="2">
+        <v>45226</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>64475</v>
+      </c>
+      <c r="E191">
+        <v>37250</v>
+      </c>
+      <c r="F191">
+        <v>38000</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
+        <v>10500</v>
+      </c>
+      <c r="J191">
+        <v>1000</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+      <c r="L191">
+        <v>0</v>
+      </c>
+      <c r="M191">
+        <v>300000</v>
+      </c>
+      <c r="N191">
+        <v>0</v>
+      </c>
+      <c r="O191">
+        <v>0</v>
+      </c>
+      <c r="P191">
+        <v>0</v>
+      </c>
+      <c r="Q191">
+        <v>0</v>
+      </c>
+      <c r="R191">
+        <v>14000</v>
+      </c>
+      <c r="S191">
+        <v>0</v>
+      </c>
+      <c r="T191">
+        <v>1000</v>
+      </c>
+      <c r="U191">
+        <v>0</v>
+      </c>
+      <c r="V191">
+        <v>10000</v>
+      </c>
+      <c r="W191">
+        <v>0</v>
+      </c>
+      <c r="X191">
+        <v>0</v>
+      </c>
+      <c r="Y191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:25">
+      <c r="A192" s="2">
+        <v>45227</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="C192">
+        <v>77500</v>
+      </c>
+      <c r="D192">
+        <v>180700</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>31100</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="I192">
+        <v>7000</v>
+      </c>
+      <c r="J192">
+        <v>1000</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+      <c r="L192">
+        <v>0</v>
+      </c>
+      <c r="M192">
+        <v>0</v>
+      </c>
+      <c r="N192">
+        <v>0</v>
+      </c>
+      <c r="O192">
+        <v>0</v>
+      </c>
+      <c r="P192">
+        <v>0</v>
+      </c>
+      <c r="Q192">
+        <v>0</v>
+      </c>
+      <c r="R192">
+        <v>30000</v>
+      </c>
+      <c r="S192">
+        <v>0</v>
+      </c>
+      <c r="T192">
+        <v>1000</v>
+      </c>
+      <c r="U192">
+        <v>0</v>
+      </c>
+      <c r="V192">
+        <v>0</v>
+      </c>
+      <c r="W192">
+        <v>0</v>
+      </c>
+      <c r="X192">
+        <v>0</v>
+      </c>
+      <c r="Y192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:25">
+      <c r="A193" s="2">
+        <v>45228</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>102700</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>57000</v>
+      </c>
+      <c r="G193">
+        <v>919250</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193">
+        <v>17500</v>
+      </c>
+      <c r="J193">
+        <v>1000</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="L193">
+        <v>0</v>
+      </c>
+      <c r="M193">
+        <v>0</v>
+      </c>
+      <c r="N193">
+        <v>0</v>
+      </c>
+      <c r="O193">
+        <v>0</v>
+      </c>
+      <c r="P193">
+        <v>0</v>
+      </c>
+      <c r="Q193">
+        <v>0</v>
+      </c>
+      <c r="R193">
+        <v>9000</v>
+      </c>
+      <c r="S193">
+        <v>0</v>
+      </c>
+      <c r="T193">
+        <v>5000</v>
+      </c>
+      <c r="U193">
+        <v>0</v>
+      </c>
+      <c r="V193">
+        <v>0</v>
+      </c>
+      <c r="W193">
+        <v>190000</v>
+      </c>
+      <c r="X193">
+        <v>0</v>
+      </c>
+      <c r="Y193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:25">
+      <c r="A194" s="2">
+        <v>45229</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>62800</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>47500</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>1000</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+      <c r="L194">
+        <v>0</v>
+      </c>
+      <c r="M194">
+        <v>0</v>
+      </c>
+      <c r="N194">
+        <v>0</v>
+      </c>
+      <c r="O194">
+        <v>0</v>
+      </c>
+      <c r="P194">
+        <v>0</v>
+      </c>
+      <c r="Q194">
+        <v>0</v>
+      </c>
+      <c r="R194">
+        <v>0</v>
+      </c>
+      <c r="S194">
+        <v>0</v>
+      </c>
+      <c r="T194">
+        <v>0</v>
+      </c>
+      <c r="U194">
+        <v>0</v>
+      </c>
+      <c r="V194">
+        <v>0</v>
+      </c>
+      <c r="W194">
+        <v>289500</v>
+      </c>
+      <c r="X194">
+        <v>0</v>
+      </c>
+      <c r="Y194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:25">
+      <c r="A195" s="2">
+        <v>45230</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+      <c r="C195">
+        <v>77.5</v>
+      </c>
+      <c r="D195">
+        <v>25.5</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>7</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>1000</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <v>0</v>
+      </c>
+      <c r="M195">
+        <v>0</v>
+      </c>
+      <c r="N195">
+        <v>0</v>
+      </c>
+      <c r="O195">
+        <v>0</v>
+      </c>
+      <c r="P195">
+        <v>200000</v>
+      </c>
+      <c r="Q195">
+        <v>0</v>
+      </c>
+      <c r="R195">
+        <v>0</v>
+      </c>
+      <c r="S195">
+        <v>0</v>
+      </c>
+      <c r="T195">
+        <v>0</v>
+      </c>
+      <c r="U195">
+        <v>42000</v>
+      </c>
+      <c r="V195">
+        <v>10000</v>
+      </c>
+      <c r="W195">
+        <v>0</v>
+      </c>
+      <c r="X195">
+        <v>0</v>
+      </c>
+      <c r="Y195">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Analyse_Globale.xlsx
+++ b/Analyse_Globale.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -94,20 +94,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* \-??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* \-_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -115,356 +111,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -487,316 +146,22 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Virgule" xfId="1" builtinId="3"/>
-    <cellStyle name="Monétaire" xfId="2" builtinId="4"/>
-    <cellStyle name="Pourcentage" xfId="3" builtinId="5"/>
-    <cellStyle name="Milliers [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Monétaire [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Lien hypertexte" xfId="6" builtinId="8"/>
-    <cellStyle name="Lien hypertexte visité" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Avertissement" xfId="9" builtinId="11"/>
-    <cellStyle name="Titre" xfId="10" builtinId="15"/>
-    <cellStyle name="CTexte explicatif" xfId="11" builtinId="53"/>
-    <cellStyle name="Titre 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Titre 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Titre 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Titre 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Entrée" xfId="16" builtinId="20"/>
-    <cellStyle name="Sortie" xfId="17" builtinId="21"/>
-    <cellStyle name="Calcul" xfId="18" builtinId="22"/>
-    <cellStyle name="Vérification de cellule" xfId="19" builtinId="23"/>
-    <cellStyle name="Cellule liée" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Satisfaisant" xfId="22" builtinId="26"/>
-    <cellStyle name="Insatisfaisant" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutre" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20 % - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40 % - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60 % - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20 % - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40 % - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60 % - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20 % - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40 % - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60 % - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20 % - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40 % - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60 % - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20 % - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40 % - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60 % - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20 % - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40 % - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60 % - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1079,22 +444,17 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="19.5714285714286" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
@@ -1321,10 +681,10 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>686500</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>151210</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1398,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>492200</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>89405</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1475,10 +835,10 @@
         <v>30000</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>139500</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>165500</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1552,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>157000</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>174000</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1629,10 +989,10 @@
         <v>0</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>590500</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>176325</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1706,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>164500</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>113700</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1783,10 +1143,10 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>289500</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>347750</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1860,10 +1220,10 @@
         <v>45000</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>564600</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>119000</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1937,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>443000</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>2007660</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1960,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>470250</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -2014,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>300500</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -2091,10 +1451,10 @@
         <v>97000</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>136000</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>130500</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -2168,10 +1528,10 @@
         <v>7000</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>211500</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>78650</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -2245,10 +1605,10 @@
         <v>0</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>267500</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>218750</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2322,10 +1682,10 @@
         <v>0</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>399800</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>230300</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2399,10 +1759,10 @@
         <v>0</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>381600</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>91500</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2476,10 +1836,10 @@
         <v>0</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>249500</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>164500</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2553,10 +1913,10 @@
         <v>57000</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>95000</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>187150</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2630,10 +1990,10 @@
         <v>15000</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>156000</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>335327.39623</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2707,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>440500</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>133200</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2784,10 +2144,10 @@
         <v>140000</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>150400</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>296300</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2861,10 +2221,10 @@
         <v>0</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>752500</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>100150</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2938,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>771000</v>
       </c>
       <c r="Y24">
-        <v>0</v>
+        <v>154750</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -3015,10 +2375,10 @@
         <v>13000</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>845500</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>166750</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -3092,10 +2452,10 @@
         <v>50000</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>638500</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>1359175</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -3169,10 +2529,10 @@
         <v>50000</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>273000</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>313250</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -3246,10 +2606,10 @@
         <v>0</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>931000</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>406525</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -3323,10 +2683,10 @@
         <v>0</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>419000</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>187950</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -3400,10 +2760,10 @@
         <v>70000</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>375000</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>360050</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -3477,10 +2837,10 @@
         <v>19000</v>
       </c>
       <c r="X31">
-        <v>0</v>
+        <v>745250</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>125900</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -3554,10 +2914,10 @@
         <v>0</v>
       </c>
       <c r="X32">
-        <v>0</v>
+        <v>276500</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>403772.26</v>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -3631,10 +2991,10 @@
         <v>0</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>214150</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>805850</v>
       </c>
     </row>
     <row r="34" spans="1:25">
@@ -3708,10 +3068,10 @@
         <v>0</v>
       </c>
       <c r="X34">
-        <v>0</v>
+        <v>446500</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>63000</v>
       </c>
     </row>
     <row r="35" spans="1:25">
@@ -3785,10 +3145,10 @@
         <v>54000</v>
       </c>
       <c r="X35">
-        <v>0</v>
+        <v>186600</v>
       </c>
       <c r="Y35">
-        <v>0</v>
+        <v>323850</v>
       </c>
     </row>
     <row r="36" spans="1:25">
@@ -3862,10 +3222,10 @@
         <v>0</v>
       </c>
       <c r="X36">
-        <v>0</v>
+        <v>245500</v>
       </c>
       <c r="Y36">
-        <v>0</v>
+        <v>127600</v>
       </c>
     </row>
     <row r="37" spans="1:25">
@@ -3939,10 +3299,10 @@
         <v>0</v>
       </c>
       <c r="X37">
-        <v>0</v>
+        <v>302000</v>
       </c>
       <c r="Y37">
-        <v>0</v>
+        <v>122650</v>
       </c>
     </row>
     <row r="38" spans="1:25">
@@ -4016,10 +3376,10 @@
         <v>45500</v>
       </c>
       <c r="X38">
-        <v>0</v>
+        <v>481500</v>
       </c>
       <c r="Y38">
-        <v>0</v>
+        <v>176750</v>
       </c>
     </row>
     <row r="39" spans="1:25">
@@ -4093,10 +3453,10 @@
         <v>178500</v>
       </c>
       <c r="X39">
-        <v>0</v>
+        <v>615250</v>
       </c>
       <c r="Y39">
-        <v>0</v>
+        <v>663600</v>
       </c>
     </row>
     <row r="40" spans="1:25">
@@ -4170,10 +3530,10 @@
         <v>5000</v>
       </c>
       <c r="X40">
-        <v>0</v>
+        <v>214500</v>
       </c>
       <c r="Y40">
-        <v>0</v>
+        <v>135800</v>
       </c>
     </row>
     <row r="41" spans="1:25">
@@ -4247,10 +3607,10 @@
         <v>0</v>
       </c>
       <c r="X41">
-        <v>0</v>
+        <v>209250</v>
       </c>
       <c r="Y41">
-        <v>0</v>
+        <v>111450</v>
       </c>
     </row>
     <row r="42" spans="1:25">
@@ -4324,10 +3684,10 @@
         <v>80000</v>
       </c>
       <c r="X42">
-        <v>0</v>
+        <v>494250</v>
       </c>
       <c r="Y42">
-        <v>0</v>
+        <v>2530650</v>
       </c>
     </row>
     <row r="43" spans="1:25">
@@ -13795,10 +13155,10 @@
         <v>0</v>
       </c>
       <c r="X165">
-        <v>0</v>
+        <v>1028750</v>
       </c>
       <c r="Y165">
-        <v>0</v>
+        <v>2236800</v>
       </c>
     </row>
     <row r="166" spans="1:25">
@@ -13872,10 +13232,10 @@
         <v>40000</v>
       </c>
       <c r="X166">
-        <v>0</v>
+        <v>470500</v>
       </c>
       <c r="Y166">
-        <v>0</v>
+        <v>347425</v>
       </c>
     </row>
     <row r="167" spans="1:25">
@@ -13949,10 +13309,10 @@
         <v>0</v>
       </c>
       <c r="X167">
-        <v>0</v>
+        <v>923250</v>
       </c>
       <c r="Y167">
-        <v>0</v>
+        <v>487000</v>
       </c>
     </row>
     <row r="168" spans="1:25">
@@ -14026,10 +13386,10 @@
         <v>0</v>
       </c>
       <c r="X168">
-        <v>0</v>
+        <v>1560000</v>
       </c>
       <c r="Y168">
-        <v>0</v>
+        <v>399450</v>
       </c>
     </row>
     <row r="169" spans="1:25">
@@ -14103,10 +13463,10 @@
         <v>0</v>
       </c>
       <c r="X169">
-        <v>0</v>
+        <v>1383000</v>
       </c>
       <c r="Y169">
-        <v>0</v>
+        <v>1147050</v>
       </c>
     </row>
     <row r="170" spans="1:25">
@@ -14180,10 +13540,10 @@
         <v>0</v>
       </c>
       <c r="X170">
-        <v>0</v>
+        <v>1809000</v>
       </c>
       <c r="Y170">
-        <v>0</v>
+        <v>343950</v>
       </c>
     </row>
     <row r="171" spans="1:25">
@@ -14257,10 +13617,10 @@
         <v>0</v>
       </c>
       <c r="X171">
-        <v>0</v>
+        <v>1222750</v>
       </c>
       <c r="Y171">
-        <v>0</v>
+        <v>283350</v>
       </c>
     </row>
     <row r="172" spans="1:25">
@@ -14334,10 +13694,10 @@
         <v>0</v>
       </c>
       <c r="X172">
-        <v>0</v>
+        <v>2078000</v>
       </c>
       <c r="Y172">
-        <v>0</v>
+        <v>2898000</v>
       </c>
     </row>
     <row r="173" spans="1:25">
@@ -14411,10 +13771,10 @@
         <v>0</v>
       </c>
       <c r="X173">
-        <v>0</v>
+        <v>676500</v>
       </c>
       <c r="Y173">
-        <v>0</v>
+        <v>205800</v>
       </c>
     </row>
     <row r="174" spans="1:25">
@@ -14488,10 +13848,10 @@
         <v>0</v>
       </c>
       <c r="X174">
-        <v>0</v>
+        <v>538250</v>
       </c>
       <c r="Y174">
-        <v>0</v>
+        <v>71600</v>
       </c>
     </row>
     <row r="175" spans="1:25">
@@ -14565,10 +13925,10 @@
         <v>0</v>
       </c>
       <c r="X175">
-        <v>0</v>
+        <v>1600500</v>
       </c>
       <c r="Y175">
-        <v>0</v>
+        <v>993225</v>
       </c>
     </row>
     <row r="176" spans="1:25">
@@ -14642,10 +14002,10 @@
         <v>0</v>
       </c>
       <c r="X176">
-        <v>0</v>
+        <v>1163750</v>
       </c>
       <c r="Y176">
-        <v>0</v>
+        <v>348600</v>
       </c>
     </row>
     <row r="177" spans="1:25">
@@ -14719,10 +14079,10 @@
         <v>0</v>
       </c>
       <c r="X177">
-        <v>0</v>
+        <v>1578000</v>
       </c>
       <c r="Y177">
-        <v>0</v>
+        <v>703650</v>
       </c>
     </row>
     <row r="178" spans="1:25">
@@ -14796,10 +14156,10 @@
         <v>0</v>
       </c>
       <c r="X178">
-        <v>0</v>
+        <v>1579750</v>
       </c>
       <c r="Y178">
-        <v>0</v>
+        <v>752800</v>
       </c>
     </row>
     <row r="179" spans="1:25">
@@ -14873,10 +14233,10 @@
         <v>0</v>
       </c>
       <c r="X179">
-        <v>0</v>
+        <v>1580500</v>
       </c>
       <c r="Y179">
-        <v>0</v>
+        <v>1848100</v>
       </c>
     </row>
     <row r="180" spans="1:25">
@@ -14950,10 +14310,10 @@
         <v>15000</v>
       </c>
       <c r="X180">
-        <v>0</v>
+        <v>542250</v>
       </c>
       <c r="Y180">
-        <v>0</v>
+        <v>257150</v>
       </c>
     </row>
     <row r="181" spans="1:25">
@@ -15027,10 +14387,10 @@
         <v>0</v>
       </c>
       <c r="X181">
-        <v>0</v>
+        <v>949000</v>
       </c>
       <c r="Y181">
-        <v>0</v>
+        <v>390000</v>
       </c>
     </row>
     <row r="182" spans="1:25">
@@ -15104,10 +14464,10 @@
         <v>0</v>
       </c>
       <c r="X182">
-        <v>0</v>
+        <v>1774250</v>
       </c>
       <c r="Y182">
-        <v>0</v>
+        <v>250850</v>
       </c>
     </row>
     <row r="183" spans="1:25">
@@ -15181,10 +14541,10 @@
         <v>0</v>
       </c>
       <c r="X183">
-        <v>0</v>
+        <v>985000</v>
       </c>
       <c r="Y183">
-        <v>0</v>
+        <v>409900</v>
       </c>
     </row>
     <row r="184" spans="1:25">
@@ -15258,10 +14618,10 @@
         <v>0</v>
       </c>
       <c r="X184">
-        <v>0</v>
+        <v>1147500</v>
       </c>
       <c r="Y184">
-        <v>0</v>
+        <v>516450</v>
       </c>
     </row>
     <row r="185" spans="1:25">
@@ -15335,10 +14695,10 @@
         <v>0</v>
       </c>
       <c r="X185">
-        <v>0</v>
+        <v>1131000</v>
       </c>
       <c r="Y185">
-        <v>0</v>
+        <v>371650</v>
       </c>
     </row>
     <row r="186" spans="1:25">
@@ -15412,10 +14772,10 @@
         <v>0</v>
       </c>
       <c r="X186">
-        <v>0</v>
+        <v>2120000</v>
       </c>
       <c r="Y186">
-        <v>0</v>
+        <v>1911450</v>
       </c>
     </row>
     <row r="187" spans="1:25">
@@ -15489,10 +14849,10 @@
         <v>0</v>
       </c>
       <c r="X187">
-        <v>0</v>
+        <v>444000</v>
       </c>
       <c r="Y187">
-        <v>0</v>
+        <v>939550</v>
       </c>
     </row>
     <row r="188" spans="1:25">
@@ -15566,10 +14926,10 @@
         <v>0</v>
       </c>
       <c r="X188">
-        <v>0</v>
+        <v>1008250</v>
       </c>
       <c r="Y188">
-        <v>0</v>
+        <v>126000</v>
       </c>
     </row>
     <row r="189" spans="1:25">
@@ -15643,10 +15003,10 @@
         <v>0</v>
       </c>
       <c r="X189">
-        <v>0</v>
+        <v>1591250</v>
       </c>
       <c r="Y189">
-        <v>0</v>
+        <v>330325</v>
       </c>
     </row>
     <row r="190" spans="1:25">
@@ -15720,10 +15080,10 @@
         <v>0</v>
       </c>
       <c r="X190">
-        <v>0</v>
+        <v>1170500</v>
       </c>
       <c r="Y190">
-        <v>0</v>
+        <v>1086800</v>
       </c>
     </row>
     <row r="191" spans="1:25">
@@ -15797,10 +15157,10 @@
         <v>0</v>
       </c>
       <c r="X191">
-        <v>0</v>
+        <v>1144500</v>
       </c>
       <c r="Y191">
-        <v>0</v>
+        <v>476225</v>
       </c>
     </row>
     <row r="192" spans="1:25">
@@ -15874,10 +15234,10 @@
         <v>0</v>
       </c>
       <c r="X192">
-        <v>0</v>
+        <v>1271000</v>
       </c>
       <c r="Y192">
-        <v>0</v>
+        <v>328300</v>
       </c>
     </row>
     <row r="193" spans="1:25">
@@ -15951,10 +15311,10 @@
         <v>190000</v>
       </c>
       <c r="X193">
-        <v>0</v>
+        <v>1287750</v>
       </c>
       <c r="Y193">
-        <v>0</v>
+        <v>1301450</v>
       </c>
     </row>
     <row r="194" spans="1:25">
@@ -16028,10 +15388,10 @@
         <v>289500</v>
       </c>
       <c r="X194">
-        <v>0</v>
+        <v>754250</v>
       </c>
       <c r="Y194">
-        <v>0</v>
+        <v>400800</v>
       </c>
     </row>
     <row r="195" spans="1:25">
@@ -16042,16 +15402,16 @@
         <v>0</v>
       </c>
       <c r="C195">
-        <v>77.5</v>
+        <v>77500</v>
       </c>
       <c r="D195">
-        <v>25.5</v>
+        <v>25500</v>
       </c>
       <c r="E195">
         <v>0</v>
       </c>
       <c r="F195">
-        <v>7</v>
+        <v>7000</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -16105,14 +15465,13 @@
         <v>0</v>
       </c>
       <c r="X195">
-        <v>0</v>
+        <v>1412250</v>
       </c>
       <c r="Y195">
-        <v>0</v>
+        <v>363000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>